--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_22_7.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_22_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3310639.707580573</v>
+        <v>-3311306.503700822</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>397594.7381667049</v>
+        <v>397594.7381667056</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058542</v>
+        <v>632041.4518058546</v>
       </c>
     </row>
     <row r="9">
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>82.66266089709382</v>
       </c>
       <c r="C11" t="n">
-        <v>82.6626608970941</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>82.6626608970941</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>82.66266089709382</v>
       </c>
       <c r="G11" t="n">
-        <v>82.6626608970941</v>
+        <v>72.80927171816025</v>
       </c>
       <c r="H11" t="n">
-        <v>55.04907887222586</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,7 +1421,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>17.76019284593451</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>82.66266089709382</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>65.82808979243258</v>
       </c>
       <c r="F12" t="n">
-        <v>82.6626608970941</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>82.66266089709382</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1500,22 +1500,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>10.29207558827159</v>
+        <v>10.29207558827162</v>
       </c>
       <c r="U12" t="n">
-        <v>32.57485987793721</v>
+        <v>32.57485987793724</v>
       </c>
       <c r="V12" t="n">
-        <v>35.9961367123513</v>
+        <v>35.99613671235133</v>
       </c>
       <c r="W12" t="n">
-        <v>62.05179937396065</v>
+        <v>62.05179937396068</v>
       </c>
       <c r="X12" t="n">
-        <v>78.48822002885322</v>
+        <v>12.66013023641969</v>
       </c>
       <c r="Y12" t="n">
-        <v>18.73150193097467</v>
+        <v>18.7315019309747</v>
       </c>
     </row>
     <row r="13">
@@ -1576,25 +1576,25 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>30.69078435787955</v>
+        <v>30.69078435787958</v>
       </c>
       <c r="T13" t="n">
-        <v>19.08561116512938</v>
+        <v>19.08561116512941</v>
       </c>
       <c r="U13" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709382</v>
       </c>
       <c r="V13" t="n">
-        <v>40.45623098139896</v>
+        <v>40.45623098139899</v>
       </c>
       <c r="W13" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709382</v>
       </c>
       <c r="X13" t="n">
-        <v>17.26667120519159</v>
+        <v>17.26667120519161</v>
       </c>
       <c r="Y13" t="n">
-        <v>12.48848861111748</v>
+        <v>12.4884886111175</v>
       </c>
     </row>
     <row r="14">
@@ -1607,10 +1607,10 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>82.6626608970941</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -1619,13 +1619,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>82.6626608970941</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>50.2204600822664</v>
       </c>
       <c r="I14" t="n">
-        <v>35.89105811681797</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>22.588811635894</v>
+        <v>22.58881163589395</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1667,13 +1667,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="Y14" t="n">
-        <v>14.32940196544843</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1692,10 +1692,10 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>65.82808979243393</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1728,31 +1728,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>82.6626608970941</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>10.29207558827154</v>
+        <v>10.29207558827148</v>
       </c>
       <c r="U15" t="n">
-        <v>32.57485987793716</v>
+        <v>32.5748598779371</v>
       </c>
       <c r="V15" t="n">
-        <v>35.99613671235124</v>
+        <v>35.99613671235119</v>
       </c>
       <c r="W15" t="n">
-        <v>62.05179937396059</v>
+        <v>62.05179937396053</v>
       </c>
       <c r="X15" t="n">
-        <v>12.6601302364196</v>
+        <v>72.44418444581099</v>
       </c>
       <c r="Y15" t="n">
-        <v>18.73150193097462</v>
+        <v>18.73150193097456</v>
       </c>
     </row>
     <row r="16">
@@ -1813,25 +1813,25 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>30.6907843578795</v>
+        <v>30.69078435787944</v>
       </c>
       <c r="T16" t="n">
-        <v>19.08561116512932</v>
+        <v>19.08561116512927</v>
       </c>
       <c r="U16" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="V16" t="n">
-        <v>40.4562309813989</v>
+        <v>40.45623098139885</v>
       </c>
       <c r="W16" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="X16" t="n">
-        <v>17.26667120519153</v>
+        <v>17.26667120519147</v>
       </c>
       <c r="Y16" t="n">
-        <v>12.48848861111742</v>
+        <v>12.48848861111736</v>
       </c>
     </row>
     <row r="17">
@@ -1926,16 +1926,16 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>72.80927171816047</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1974,13 +1974,13 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>82.6626608970941</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
       </c>
       <c r="V18" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -1989,7 +1989,7 @@
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>82.6626608970941</v>
+        <v>72.80927171816036</v>
       </c>
     </row>
     <row r="19">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>37.92381382931677</v>
+        <v>37.92381382931684</v>
       </c>
       <c r="C20" t="n">
-        <v>14.04207083266226</v>
+        <v>14.0420708326622</v>
       </c>
       <c r="D20" t="n">
-        <v>1.608733093710725</v>
+        <v>1.608733093710669</v>
       </c>
       <c r="E20" t="n">
-        <v>35.3154855131196</v>
+        <v>35.31548551311954</v>
       </c>
       <c r="F20" t="n">
-        <v>67.03582309149692</v>
+        <v>67.03582309149687</v>
       </c>
       <c r="G20" t="n">
-        <v>82.662660897094</v>
+        <v>82.66266089709394</v>
       </c>
       <c r="H20" t="n">
-        <v>10.73420125866869</v>
+        <v>10.73420125866863</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2141,13 +2141,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>1.733037277250332</v>
+        <v>1.733037277250276</v>
       </c>
       <c r="X20" t="n">
-        <v>23.61928774618957</v>
+        <v>23.61928774618951</v>
       </c>
       <c r="Y20" t="n">
-        <v>46.12214086993333</v>
+        <v>46.12214086993328</v>
       </c>
     </row>
     <row r="21">
@@ -2157,7 +2157,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="C21" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>82.6626608970941</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>20.94502692836813</v>
+        <v>0</v>
       </c>
       <c r="H21" t="n">
         <v>0</v>
@@ -2211,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2223,10 +2223,10 @@
         <v>0</v>
       </c>
       <c r="X21" t="n">
-        <v>82.6626608970941</v>
+        <v>20.94502692836803</v>
       </c>
       <c r="Y21" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
     </row>
     <row r="22">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>37.92381382931677</v>
+        <v>37.92381382931671</v>
       </c>
       <c r="C23" t="n">
-        <v>14.04207083266226</v>
+        <v>14.0420708326622</v>
       </c>
       <c r="D23" t="n">
-        <v>1.608733093710725</v>
+        <v>1.608733093710669</v>
       </c>
       <c r="E23" t="n">
-        <v>35.3154855131196</v>
+        <v>35.31548551311954</v>
       </c>
       <c r="F23" t="n">
-        <v>67.03582309149692</v>
+        <v>67.03582309149687</v>
       </c>
       <c r="G23" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="H23" t="n">
-        <v>10.73420125866869</v>
+        <v>10.73420125866863</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2378,13 +2378,13 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>1.733037277250332</v>
+        <v>1.733037277250276</v>
       </c>
       <c r="X23" t="n">
-        <v>23.61928774618957</v>
+        <v>23.61928774618951</v>
       </c>
       <c r="Y23" t="n">
-        <v>46.12214086993333</v>
+        <v>46.12214086993328</v>
       </c>
     </row>
     <row r="24">
@@ -2400,13 +2400,13 @@
         <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>72.80927171816036</v>
       </c>
       <c r="F24" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2418,7 +2418,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>51.86424478979234</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -2439,7 +2439,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.044035583042479</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -2448,7 +2448,7 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
@@ -2457,13 +2457,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="Y24" t="n">
-        <v>14.90099134532555</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>161.2417617096388</v>
+        <v>161.2417617096387</v>
       </c>
       <c r="C26" t="n">
         <v>137.3600187129842</v>
@@ -2561,19 +2561,19 @@
         <v>124.9266809740327</v>
       </c>
       <c r="E26" t="n">
-        <v>158.6334333934416</v>
+        <v>158.6334333934415</v>
       </c>
       <c r="F26" t="n">
         <v>190.3537709718189</v>
       </c>
       <c r="G26" t="n">
-        <v>205.980608777416</v>
+        <v>205.9806087774159</v>
       </c>
       <c r="H26" t="n">
         <v>134.0521491389907</v>
       </c>
       <c r="I26" t="n">
-        <v>27.69836365167438</v>
+        <v>27.69836365167436</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.39611717075043</v>
+        <v>14.3961171707504</v>
       </c>
       <c r="T26" t="n">
-        <v>9.567498380790882</v>
+        <v>9.567498380790854</v>
       </c>
       <c r="U26" t="n">
-        <v>37.30409598309214</v>
+        <v>37.30409598309211</v>
       </c>
       <c r="V26" t="n">
         <v>108.0343049409574</v>
@@ -2618,7 +2618,7 @@
         <v>125.0509851575723</v>
       </c>
       <c r="X26" t="n">
-        <v>146.9372356265116</v>
+        <v>146.9372356265115</v>
       </c>
       <c r="Y26" t="n">
         <v>169.4400887502553</v>
@@ -2640,13 +2640,13 @@
         <v>0</v>
       </c>
       <c r="E27" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F27" t="n">
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>148.7381381529399</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2685,22 +2685,22 @@
         <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>2.099381123127962</v>
+        <v>214.9448597913225</v>
       </c>
       <c r="U27" t="n">
-        <v>24.38216541279358</v>
+        <v>237.2276440809881</v>
       </c>
       <c r="V27" t="n">
-        <v>27.80344224720767</v>
+        <v>88.22758302501734</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.85910490881699</v>
       </c>
       <c r="X27" t="n">
-        <v>217.3129144394706</v>
+        <v>4.467435771276001</v>
       </c>
       <c r="Y27" t="n">
-        <v>47.87351455678095</v>
+        <v>10.53880746583101</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>22.49808989273592</v>
+        <v>22.49808989273589</v>
       </c>
       <c r="T28" t="n">
-        <v>10.89291669998575</v>
+        <v>10.89291669998572</v>
       </c>
       <c r="U28" t="n">
-        <v>75.81078260145006</v>
+        <v>75.81078260145003</v>
       </c>
       <c r="V28" t="n">
-        <v>32.26353651625533</v>
+        <v>32.2635365162553</v>
       </c>
       <c r="W28" t="n">
-        <v>77.46522842114075</v>
+        <v>77.46522842114072</v>
       </c>
       <c r="X28" t="n">
-        <v>9.073976740047954</v>
+        <v>9.073976740047925</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.295794145973844</v>
+        <v>4.295794145973815</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>161.2417617096388</v>
+        <v>161.2417617096387</v>
       </c>
       <c r="C29" t="n">
-        <v>137.3600187129843</v>
+        <v>137.3600187129842</v>
       </c>
       <c r="D29" t="n">
-        <v>124.9266809740328</v>
+        <v>124.9266809740327</v>
       </c>
       <c r="E29" t="n">
-        <v>158.6334333934416</v>
+        <v>158.6334333934415</v>
       </c>
       <c r="F29" t="n">
-        <v>190.353770971819</v>
+        <v>190.3537709718189</v>
       </c>
       <c r="G29" t="n">
-        <v>205.980608777416</v>
+        <v>205.9806087774159</v>
       </c>
       <c r="H29" t="n">
-        <v>134.0521491389908</v>
+        <v>134.0521491389907</v>
       </c>
       <c r="I29" t="n">
-        <v>27.69836365167445</v>
+        <v>27.69836365167436</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.39611717075048</v>
+        <v>14.3961171707504</v>
       </c>
       <c r="T29" t="n">
-        <v>9.567498380790939</v>
+        <v>9.567498380790854</v>
       </c>
       <c r="U29" t="n">
-        <v>37.3040959830922</v>
+        <v>37.30409598309211</v>
       </c>
       <c r="V29" t="n">
-        <v>108.0343049409575</v>
+        <v>108.0343049409574</v>
       </c>
       <c r="W29" t="n">
-        <v>125.0509851575724</v>
+        <v>125.0509851575723</v>
       </c>
       <c r="X29" t="n">
-        <v>146.9372356265116</v>
+        <v>146.9372356265115</v>
       </c>
       <c r="Y29" t="n">
-        <v>169.4400887502554</v>
+        <v>169.4400887502553</v>
       </c>
     </row>
     <row r="30">
@@ -2871,7 +2871,7 @@
         <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>50.33883981082093</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
@@ -2880,7 +2880,7 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>2.099381123128019</v>
+        <v>2.099381123127934</v>
       </c>
       <c r="U30" t="n">
-        <v>24.38216541279364</v>
+        <v>233.5444443435433</v>
       </c>
       <c r="V30" t="n">
-        <v>240.6489209154022</v>
+        <v>27.80344224720764</v>
       </c>
       <c r="W30" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X30" t="n">
-        <v>4.467435771276087</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y30" t="n">
-        <v>10.5388074658311</v>
+        <v>10.53880746583101</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>22.49808989273598</v>
+        <v>22.49808989273589</v>
       </c>
       <c r="T31" t="n">
-        <v>10.8929166999858</v>
+        <v>10.89291669998572</v>
       </c>
       <c r="U31" t="n">
-        <v>75.81078260145011</v>
+        <v>75.81078260145003</v>
       </c>
       <c r="V31" t="n">
-        <v>32.26353651625539</v>
+        <v>32.2635365162553</v>
       </c>
       <c r="W31" t="n">
-        <v>77.46522842114081</v>
+        <v>77.46522842114072</v>
       </c>
       <c r="X31" t="n">
-        <v>9.07397674004801</v>
+        <v>9.073976740047925</v>
       </c>
       <c r="Y31" t="n">
-        <v>4.2957941459739</v>
+        <v>4.295794145973815</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>161.2417617096387</v>
+        <v>161.2417617096388</v>
       </c>
       <c r="C32" t="n">
-        <v>137.3600187129842</v>
+        <v>137.3600187129843</v>
       </c>
       <c r="D32" t="n">
-        <v>124.9266809740327</v>
+        <v>124.9266809740328</v>
       </c>
       <c r="E32" t="n">
-        <v>158.6334333934415</v>
+        <v>158.6334333934416</v>
       </c>
       <c r="F32" t="n">
-        <v>190.3537709718189</v>
+        <v>190.353770971819</v>
       </c>
       <c r="G32" t="n">
-        <v>205.9806087774159</v>
+        <v>205.980608777416</v>
       </c>
       <c r="H32" t="n">
-        <v>134.0521491389906</v>
+        <v>134.0521491389907</v>
       </c>
       <c r="I32" t="n">
-        <v>27.69836365167436</v>
+        <v>27.69836365167444</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>14.39611717075039</v>
+        <v>14.39611717075047</v>
       </c>
       <c r="T32" t="n">
-        <v>9.567498380790852</v>
+        <v>9.567498380790937</v>
       </c>
       <c r="U32" t="n">
-        <v>37.30409598309211</v>
+        <v>37.3040959830922</v>
       </c>
       <c r="V32" t="n">
-        <v>108.0343049409574</v>
+        <v>108.0343049409575</v>
       </c>
       <c r="W32" t="n">
-        <v>125.0509851575723</v>
+        <v>125.0509851575724</v>
       </c>
       <c r="X32" t="n">
-        <v>146.9372356265115</v>
+        <v>146.9372356265116</v>
       </c>
       <c r="Y32" t="n">
-        <v>169.4400887502553</v>
+        <v>169.4400887502554</v>
       </c>
     </row>
     <row r="33">
@@ -3108,10 +3108,10 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>102.7724969599482</v>
+        <v>0</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
@@ -3123,13 +3123,13 @@
         <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>125.6730735315877</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3150,31 +3150,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.044035583042479</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T33" t="n">
-        <v>2.099381123127934</v>
+        <v>180.772211701503</v>
       </c>
       <c r="U33" t="n">
-        <v>24.38216541279355</v>
+        <v>24.38216541279364</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>27.80344224720773</v>
       </c>
       <c r="W33" t="n">
-        <v>53.85910490881699</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X33" t="n">
-        <v>4.467435771276001</v>
+        <v>4.467435771276087</v>
       </c>
       <c r="Y33" t="n">
-        <v>10.53880746583101</v>
+        <v>10.5388074658311</v>
       </c>
     </row>
     <row r="34">
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>22.49808989273589</v>
+        <v>22.49808989273598</v>
       </c>
       <c r="T34" t="n">
-        <v>10.89291669998572</v>
+        <v>10.8929166999858</v>
       </c>
       <c r="U34" t="n">
-        <v>75.81078260145003</v>
+        <v>75.81078260145011</v>
       </c>
       <c r="V34" t="n">
-        <v>32.2635365162553</v>
+        <v>32.26353651625539</v>
       </c>
       <c r="W34" t="n">
-        <v>77.46522842114072</v>
+        <v>77.46522842114081</v>
       </c>
       <c r="X34" t="n">
-        <v>9.073976740047925</v>
+        <v>9.07397674004801</v>
       </c>
       <c r="Y34" t="n">
-        <v>4.295794145973815</v>
+        <v>4.2957941459739</v>
       </c>
     </row>
     <row r="35">
@@ -3263,28 +3263,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>138.4084048744156</v>
+        <v>138.4084048744157</v>
       </c>
       <c r="C35" t="n">
         <v>114.5266618777611</v>
       </c>
       <c r="D35" t="n">
-        <v>102.0933241388095</v>
+        <v>102.0933241388096</v>
       </c>
       <c r="E35" t="n">
-        <v>135.8000765582184</v>
+        <v>135.8000765582185</v>
       </c>
       <c r="F35" t="n">
-        <v>167.5204141365957</v>
+        <v>167.5204141365958</v>
       </c>
       <c r="G35" t="n">
-        <v>183.1472519421928</v>
+        <v>183.1472519421929</v>
       </c>
       <c r="H35" t="n">
-        <v>111.2187923037675</v>
+        <v>111.2187923037676</v>
       </c>
       <c r="I35" t="n">
-        <v>4.865006816451228</v>
+        <v>4.865006816451285</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3320,16 +3320,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>14.47073914786898</v>
+        <v>14.47073914786903</v>
       </c>
       <c r="V35" t="n">
-        <v>85.20094810573428</v>
+        <v>85.20094810573434</v>
       </c>
       <c r="W35" t="n">
         <v>102.2176283223492</v>
       </c>
       <c r="X35" t="n">
-        <v>124.1038787912884</v>
+        <v>124.1038787912885</v>
       </c>
       <c r="Y35" t="n">
         <v>146.6067319150322</v>
@@ -3342,31 +3342,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C36" t="n">
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.6730735315877</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>51.86424478979234</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,7 +3387,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.044035583042479</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -3396,19 +3396,19 @@
         <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>214.9448597913225</v>
+        <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>1.548808577570426</v>
+        <v>237.2276440809881</v>
       </c>
       <c r="V36" t="n">
-        <v>76.43952282147136</v>
+        <v>4.97008541198457</v>
       </c>
       <c r="W36" t="n">
-        <v>31.02574807359386</v>
+        <v>31.02574807359392</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>23.18421262379329</v>
       </c>
       <c r="Y36" t="n">
         <v>0</v>
@@ -3478,13 +3478,13 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>52.9774257662269</v>
+        <v>52.97742576622696</v>
       </c>
       <c r="V37" t="n">
-        <v>9.430179681032172</v>
+        <v>9.430179681032229</v>
       </c>
       <c r="W37" t="n">
-        <v>54.63187158591759</v>
+        <v>54.63187158591765</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,28 +3500,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>138.4084048744156</v>
+        <v>138.4084048744157</v>
       </c>
       <c r="C38" t="n">
         <v>114.5266618777611</v>
       </c>
       <c r="D38" t="n">
-        <v>102.0933241388095</v>
+        <v>102.0933241388096</v>
       </c>
       <c r="E38" t="n">
-        <v>135.8000765582184</v>
+        <v>135.8000765582185</v>
       </c>
       <c r="F38" t="n">
-        <v>167.5204141365957</v>
+        <v>167.5204141365958</v>
       </c>
       <c r="G38" t="n">
-        <v>183.1472519421928</v>
+        <v>183.1472519421929</v>
       </c>
       <c r="H38" t="n">
-        <v>111.2187923037675</v>
+        <v>111.2187923037676</v>
       </c>
       <c r="I38" t="n">
-        <v>4.865006816451228</v>
+        <v>4.865006816451285</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3557,16 +3557,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>14.47073914786898</v>
+        <v>14.47073914786904</v>
       </c>
       <c r="V38" t="n">
-        <v>85.20094810573428</v>
+        <v>85.20094810573434</v>
       </c>
       <c r="W38" t="n">
         <v>102.2176283223492</v>
       </c>
       <c r="X38" t="n">
-        <v>124.1038787912884</v>
+        <v>124.1038787912885</v>
       </c>
       <c r="Y38" t="n">
         <v>146.6067319150322</v>
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3624,28 +3624,28 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.044035583042479</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S39" t="n">
-        <v>102.5997064871839</v>
+        <v>183.6775981940642</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9448597913225</v>
       </c>
       <c r="U39" t="n">
-        <v>237.2276440809881</v>
+        <v>1.548808577570483</v>
       </c>
       <c r="V39" t="n">
-        <v>4.970085411984513</v>
+        <v>4.97008541198457</v>
       </c>
       <c r="W39" t="n">
-        <v>31.02574807359386</v>
+        <v>31.02574807359392</v>
       </c>
       <c r="X39" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
         <v>0</v>
@@ -3715,13 +3715,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>52.9774257662269</v>
+        <v>52.97742576622696</v>
       </c>
       <c r="V40" t="n">
-        <v>9.430179681032172</v>
+        <v>9.430179681032229</v>
       </c>
       <c r="W40" t="n">
-        <v>54.63187158591759</v>
+        <v>54.63187158591765</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -3825,19 +3825,19 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>148.7381381529399</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>107.1407760227504</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3873,13 +3873,13 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>237.2276440809881</v>
+        <v>1.548808577570426</v>
       </c>
       <c r="V42" t="n">
-        <v>23.26368165469407</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W42" t="n">
-        <v>31.02574807359386</v>
+        <v>179.5495540259135</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>138.4084048744156</v>
+        <v>138.4084048744157</v>
       </c>
       <c r="C44" t="n">
-        <v>114.5266618777611</v>
+        <v>114.5266618777612</v>
       </c>
       <c r="D44" t="n">
-        <v>102.0933241388095</v>
+        <v>102.0933241388096</v>
       </c>
       <c r="E44" t="n">
-        <v>135.8000765582184</v>
+        <v>135.8000765582185</v>
       </c>
       <c r="F44" t="n">
-        <v>167.5204141365957</v>
+        <v>167.5204141365958</v>
       </c>
       <c r="G44" t="n">
-        <v>183.1472519421928</v>
+        <v>183.1472519421929</v>
       </c>
       <c r="H44" t="n">
-        <v>111.2187923037675</v>
+        <v>111.2187923037676</v>
       </c>
       <c r="I44" t="n">
-        <v>4.865006816451228</v>
+        <v>4.865006816451313</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4031,16 +4031,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>14.47073914786898</v>
+        <v>14.47073914786906</v>
       </c>
       <c r="V44" t="n">
-        <v>85.20094810573428</v>
+        <v>85.20094810573437</v>
       </c>
       <c r="W44" t="n">
         <v>102.2176283223492</v>
       </c>
       <c r="X44" t="n">
-        <v>124.1038787912884</v>
+        <v>124.1038787912885</v>
       </c>
       <c r="Y44" t="n">
         <v>146.6067319150322</v>
@@ -4053,22 +4053,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
         <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>87.10835000610788</v>
       </c>
       <c r="E45" t="n">
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>148.7381381529399</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4077,7 +4077,7 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>51.86424478979234</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -4098,28 +4098,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.044035583042479</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>134.3183216232903</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T45" t="n">
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2276440809881</v>
+        <v>1.548808577570511</v>
       </c>
       <c r="V45" t="n">
-        <v>37.77849183163876</v>
+        <v>4.970085411984599</v>
       </c>
       <c r="W45" t="n">
-        <v>31.02574807359386</v>
+        <v>31.02574807359395</v>
       </c>
       <c r="X45" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>52.9774257662269</v>
+        <v>52.97742576622699</v>
       </c>
       <c r="V46" t="n">
-        <v>9.430179681032172</v>
+        <v>9.430179681032257</v>
       </c>
       <c r="W46" t="n">
-        <v>54.63187158591759</v>
+        <v>54.63187158591768</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>312.7110548551092</v>
+        <v>163.6553690487918</v>
       </c>
       <c r="C11" t="n">
-        <v>229.2134175853171</v>
+        <v>163.6553690487918</v>
       </c>
       <c r="D11" t="n">
-        <v>145.7157803155251</v>
+        <v>163.6553690487918</v>
       </c>
       <c r="E11" t="n">
-        <v>145.7157803155251</v>
+        <v>163.6553690487918</v>
       </c>
       <c r="F11" t="n">
-        <v>145.7157803155251</v>
+        <v>80.15773177900009</v>
       </c>
       <c r="G11" t="n">
-        <v>62.21814304573304</v>
+        <v>6.613012871767506</v>
       </c>
       <c r="H11" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767506</v>
       </c>
       <c r="I11" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767506</v>
       </c>
       <c r="J11" t="n">
-        <v>86.50633016252195</v>
+        <v>71.7079719152643</v>
       </c>
       <c r="K11" t="n">
-        <v>86.50633016252195</v>
+        <v>71.7079719152643</v>
       </c>
       <c r="L11" t="n">
-        <v>135.1152860209548</v>
+        <v>120.3169277736972</v>
       </c>
       <c r="M11" t="n">
-        <v>216.951320309078</v>
+        <v>202.15296206182</v>
       </c>
       <c r="N11" t="n">
-        <v>294.4140979734625</v>
+        <v>283.9889963499429</v>
       </c>
       <c r="O11" t="n">
-        <v>330.6506435883764</v>
+        <v>320.2255419648568</v>
       </c>
       <c r="P11" t="n">
-        <v>330.6506435883764</v>
+        <v>320.2255419648568</v>
       </c>
       <c r="Q11" t="n">
-        <v>330.6506435883764</v>
+        <v>320.2255419648568</v>
       </c>
       <c r="R11" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883753</v>
       </c>
       <c r="S11" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883753</v>
       </c>
       <c r="T11" t="n">
-        <v>312.7110548551092</v>
+        <v>330.6506435883753</v>
       </c>
       <c r="U11" t="n">
-        <v>312.7110548551092</v>
+        <v>330.6506435883753</v>
       </c>
       <c r="V11" t="n">
-        <v>312.7110548551092</v>
+        <v>330.6506435883753</v>
       </c>
       <c r="W11" t="n">
-        <v>312.7110548551092</v>
+        <v>330.6506435883753</v>
       </c>
       <c r="X11" t="n">
-        <v>312.7110548551092</v>
+        <v>247.1530063185835</v>
       </c>
       <c r="Y11" t="n">
-        <v>312.7110548551092</v>
+        <v>247.1530063185835</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>90.11065014155955</v>
+        <v>156.6036701339154</v>
       </c>
       <c r="C12" t="n">
-        <v>90.11065014155955</v>
+        <v>156.6036701339154</v>
       </c>
       <c r="D12" t="n">
-        <v>90.11065014155955</v>
+        <v>156.6036701339154</v>
       </c>
       <c r="E12" t="n">
-        <v>90.11065014155955</v>
+        <v>90.11065014155925</v>
       </c>
       <c r="F12" t="n">
-        <v>6.613012871767528</v>
+        <v>90.11065014155925</v>
       </c>
       <c r="G12" t="n">
-        <v>6.613012871767528</v>
+        <v>90.11065014155925</v>
       </c>
       <c r="H12" t="n">
-        <v>6.613012871767528</v>
+        <v>90.11065014155925</v>
       </c>
       <c r="I12" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767506</v>
       </c>
       <c r="J12" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767506</v>
       </c>
       <c r="K12" t="n">
-        <v>6.613012871767528</v>
+        <v>45.61006634330795</v>
       </c>
       <c r="L12" t="n">
-        <v>6.613012871767528</v>
+        <v>127.4461006314308</v>
       </c>
       <c r="M12" t="n">
-        <v>88.44904715989068</v>
+        <v>127.4461006314308</v>
       </c>
       <c r="N12" t="n">
-        <v>166.9785750121301</v>
+        <v>209.2821349195537</v>
       </c>
       <c r="O12" t="n">
-        <v>248.8146093002532</v>
+        <v>248.8146093002524</v>
       </c>
       <c r="P12" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883753</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883753</v>
       </c>
       <c r="R12" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883753</v>
       </c>
       <c r="S12" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883753</v>
       </c>
       <c r="T12" t="n">
-        <v>320.2546076406273</v>
+        <v>320.2546076406261</v>
       </c>
       <c r="U12" t="n">
-        <v>287.350708774024</v>
+        <v>287.3507087740228</v>
       </c>
       <c r="V12" t="n">
-        <v>250.9909747211439</v>
+        <v>250.9909747211427</v>
       </c>
       <c r="W12" t="n">
-        <v>188.3123894949211</v>
+        <v>188.3123894949198</v>
       </c>
       <c r="X12" t="n">
-        <v>109.0313591627461</v>
+        <v>175.5243791551019</v>
       </c>
       <c r="Y12" t="n">
-        <v>90.11065014155955</v>
+        <v>156.6036701339154</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767506</v>
       </c>
       <c r="C13" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767506</v>
       </c>
       <c r="D13" t="n">
-        <v>6.613012871767528</v>
+        <v>65.4884454845843</v>
       </c>
       <c r="E13" t="n">
-        <v>57.81015339646928</v>
+        <v>65.4884454845843</v>
       </c>
       <c r="F13" t="n">
-        <v>57.81015339646928</v>
+        <v>65.4884454845843</v>
       </c>
       <c r="G13" t="n">
-        <v>57.81015339646928</v>
+        <v>65.4884454845843</v>
       </c>
       <c r="H13" t="n">
-        <v>96.29797301424681</v>
+        <v>65.4884454845843</v>
       </c>
       <c r="I13" t="n">
-        <v>135.861189373026</v>
+        <v>65.4884454845843</v>
       </c>
       <c r="J13" t="n">
-        <v>135.861189373026</v>
+        <v>65.4884454845843</v>
       </c>
       <c r="K13" t="n">
-        <v>217.6972236611491</v>
+        <v>65.4884454845843</v>
       </c>
       <c r="L13" t="n">
-        <v>217.6972236611491</v>
+        <v>147.3244797727072</v>
       </c>
       <c r="M13" t="n">
-        <v>217.6972236611491</v>
+        <v>212.9720372855686</v>
       </c>
       <c r="N13" t="n">
-        <v>217.6972236611491</v>
+        <v>294.8080715736914</v>
       </c>
       <c r="O13" t="n">
-        <v>217.6972236611491</v>
+        <v>294.8080715736914</v>
       </c>
       <c r="P13" t="n">
-        <v>217.6972236611491</v>
+        <v>294.8080715736914</v>
       </c>
       <c r="Q13" t="n">
-        <v>294.808071573692</v>
+        <v>294.8080715736914</v>
       </c>
       <c r="R13" t="n">
-        <v>294.808071573692</v>
+        <v>294.8080715736914</v>
       </c>
       <c r="S13" t="n">
-        <v>263.8072792930055</v>
+        <v>263.807279293005</v>
       </c>
       <c r="T13" t="n">
-        <v>244.5288841767132</v>
+        <v>244.5288841767127</v>
       </c>
       <c r="U13" t="n">
-        <v>161.0312469069212</v>
+        <v>161.031246906921</v>
       </c>
       <c r="V13" t="n">
-        <v>120.1663671277303</v>
+        <v>120.1663671277301</v>
       </c>
       <c r="W13" t="n">
-        <v>36.6687298579383</v>
+        <v>36.66872985793833</v>
       </c>
       <c r="X13" t="n">
-        <v>19.22764783249225</v>
+        <v>19.22764783249226</v>
       </c>
       <c r="Y13" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767506</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>293.3595187385355</v>
+        <v>140.8383875983942</v>
       </c>
       <c r="C14" t="n">
-        <v>209.8618814687435</v>
+        <v>140.8383875983942</v>
       </c>
       <c r="D14" t="n">
-        <v>126.3642441989514</v>
+        <v>57.34075032860227</v>
       </c>
       <c r="E14" t="n">
-        <v>126.3642441989514</v>
+        <v>57.34075032860227</v>
       </c>
       <c r="F14" t="n">
-        <v>126.3642441989514</v>
+        <v>57.34075032860227</v>
       </c>
       <c r="G14" t="n">
-        <v>42.86660692915942</v>
+        <v>57.34075032860227</v>
       </c>
       <c r="H14" t="n">
-        <v>42.86660692915942</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I14" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J14" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K14" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L14" t="n">
-        <v>88.44904715989068</v>
+        <v>55.22196873020039</v>
       </c>
       <c r="M14" t="n">
-        <v>170.2850814480138</v>
+        <v>137.0580030183234</v>
       </c>
       <c r="N14" t="n">
-        <v>247.7478591123984</v>
+        <v>214.520780682708</v>
       </c>
       <c r="O14" t="n">
-        <v>283.9844047273123</v>
+        <v>250.7573262976219</v>
       </c>
       <c r="P14" t="n">
-        <v>283.9844047273123</v>
+        <v>250.7573262976219</v>
       </c>
       <c r="Q14" t="n">
-        <v>330.6506435883764</v>
+        <v>320.2255419648574</v>
       </c>
       <c r="R14" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="S14" t="n">
-        <v>307.8336621379784</v>
+        <v>307.833662137978</v>
       </c>
       <c r="T14" t="n">
-        <v>307.8336621379784</v>
+        <v>307.833662137978</v>
       </c>
       <c r="U14" t="n">
-        <v>307.8336621379784</v>
+        <v>307.833662137978</v>
       </c>
       <c r="V14" t="n">
-        <v>307.8336621379784</v>
+        <v>307.833662137978</v>
       </c>
       <c r="W14" t="n">
-        <v>307.8336621379784</v>
+        <v>224.3360248681861</v>
       </c>
       <c r="X14" t="n">
-        <v>307.8336621379784</v>
+        <v>140.8383875983942</v>
       </c>
       <c r="Y14" t="n">
-        <v>293.3595187385355</v>
+        <v>140.8383875983942</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5331,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>73.10603286412503</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="C15" t="n">
-        <v>73.10603286412503</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="D15" t="n">
-        <v>73.10603286412503</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="E15" t="n">
-        <v>6.613012871767528</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="F15" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G15" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H15" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I15" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J15" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K15" t="n">
-        <v>6.613012871767528</v>
+        <v>45.61006634330796</v>
       </c>
       <c r="L15" t="n">
-        <v>88.44904715989068</v>
+        <v>85.14254072400681</v>
       </c>
       <c r="M15" t="n">
-        <v>170.2850814480138</v>
+        <v>85.14254072400681</v>
       </c>
       <c r="N15" t="n">
-        <v>248.8146093002532</v>
+        <v>166.9785750121299</v>
       </c>
       <c r="O15" t="n">
-        <v>248.8146093002532</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="P15" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="Q15" t="n">
-        <v>330.6506435883764</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="R15" t="n">
-        <v>330.6506435883764</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="S15" t="n">
-        <v>247.1530063185844</v>
+        <v>324.5455571408583</v>
       </c>
       <c r="T15" t="n">
-        <v>236.7569703708353</v>
+        <v>314.1495211931093</v>
       </c>
       <c r="U15" t="n">
-        <v>203.8530715042322</v>
+        <v>281.2456223265062</v>
       </c>
       <c r="V15" t="n">
-        <v>167.4933374513521</v>
+        <v>244.8858882736262</v>
       </c>
       <c r="W15" t="n">
-        <v>104.8147522251293</v>
+        <v>182.2073030474034</v>
       </c>
       <c r="X15" t="n">
-        <v>92.02674188531151</v>
+        <v>109.0313591627459</v>
       </c>
       <c r="Y15" t="n">
-        <v>73.10603286412503</v>
+        <v>90.11065014155943</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C16" t="n">
-        <v>6.613012871767528</v>
+        <v>44.42666007053543</v>
       </c>
       <c r="D16" t="n">
-        <v>6.613012871767528</v>
+        <v>103.3020926833524</v>
       </c>
       <c r="E16" t="n">
-        <v>6.613012871767528</v>
+        <v>165.6489692442702</v>
       </c>
       <c r="F16" t="n">
-        <v>6.613012871767528</v>
+        <v>230.7176122090285</v>
       </c>
       <c r="G16" t="n">
-        <v>6.613012871767528</v>
+        <v>255.2448552149119</v>
       </c>
       <c r="H16" t="n">
-        <v>6.613012871767528</v>
+        <v>255.2448552149119</v>
       </c>
       <c r="I16" t="n">
-        <v>46.17622923054673</v>
+        <v>294.8080715736912</v>
       </c>
       <c r="J16" t="n">
-        <v>49.2999687093222</v>
+        <v>294.8080715736912</v>
       </c>
       <c r="K16" t="n">
-        <v>49.2999687093222</v>
+        <v>294.8080715736912</v>
       </c>
       <c r="L16" t="n">
-        <v>131.1360029974454</v>
+        <v>294.8080715736912</v>
       </c>
       <c r="M16" t="n">
-        <v>212.9720372855685</v>
+        <v>294.8080715736912</v>
       </c>
       <c r="N16" t="n">
-        <v>294.8080715736917</v>
+        <v>294.8080715736912</v>
       </c>
       <c r="O16" t="n">
-        <v>294.8080715736917</v>
+        <v>294.8080715736912</v>
       </c>
       <c r="P16" t="n">
-        <v>294.8080715736917</v>
+        <v>294.8080715736912</v>
       </c>
       <c r="Q16" t="n">
-        <v>294.8080715736917</v>
+        <v>294.8080715736912</v>
       </c>
       <c r="R16" t="n">
-        <v>294.8080715736917</v>
+        <v>294.8080715736912</v>
       </c>
       <c r="S16" t="n">
-        <v>263.8072792930053</v>
+        <v>263.8072792930049</v>
       </c>
       <c r="T16" t="n">
-        <v>244.528884176713</v>
+        <v>244.5288841767126</v>
       </c>
       <c r="U16" t="n">
-        <v>161.031246906921</v>
+        <v>161.0312469069207</v>
       </c>
       <c r="V16" t="n">
-        <v>120.1663671277302</v>
+        <v>120.16636712773</v>
       </c>
       <c r="W16" t="n">
-        <v>36.66872985793818</v>
+        <v>36.66872985793806</v>
       </c>
       <c r="X16" t="n">
-        <v>19.22764783249219</v>
+        <v>19.22764783249213</v>
       </c>
       <c r="Y16" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>220.1473307371743</v>
+        <v>220.1473307371739</v>
       </c>
       <c r="C17" t="n">
-        <v>205.9634208051923</v>
+        <v>205.9634208051918</v>
       </c>
       <c r="D17" t="n">
-        <v>204.3384378822521</v>
+        <v>204.3384378822517</v>
       </c>
       <c r="E17" t="n">
-        <v>168.6662302932424</v>
+        <v>168.666230293242</v>
       </c>
       <c r="F17" t="n">
-        <v>100.9532776755686</v>
+        <v>100.9532776755683</v>
       </c>
       <c r="G17" t="n">
-        <v>17.45564040577631</v>
+        <v>17.4556404057763</v>
       </c>
       <c r="H17" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I17" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J17" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K17" t="n">
-        <v>82.13307353878332</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L17" t="n">
-        <v>130.7420293972162</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="M17" t="n">
-        <v>212.5780636853393</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="N17" t="n">
-        <v>294.4140979734625</v>
+        <v>247.7478591123982</v>
       </c>
       <c r="O17" t="n">
-        <v>330.6506435883764</v>
+        <v>283.9844047273121</v>
       </c>
       <c r="P17" t="n">
-        <v>330.6506435883764</v>
+        <v>315.519837078405</v>
       </c>
       <c r="Q17" t="n">
-        <v>330.6506435883764</v>
+        <v>315.519837078405</v>
       </c>
       <c r="R17" t="n">
-        <v>330.6506435883764</v>
+        <v>315.519837078405</v>
       </c>
       <c r="S17" t="n">
-        <v>330.6506435883764</v>
+        <v>315.519837078405</v>
       </c>
       <c r="T17" t="n">
-        <v>330.6506435883764</v>
+        <v>315.519837078405</v>
       </c>
       <c r="U17" t="n">
-        <v>330.6506435883764</v>
+        <v>315.519837078405</v>
       </c>
       <c r="V17" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="W17" t="n">
-        <v>328.9001008840831</v>
+        <v>328.9001008840827</v>
       </c>
       <c r="X17" t="n">
-        <v>305.0422344737906</v>
+        <v>305.0422344737902</v>
       </c>
       <c r="Y17" t="n">
-        <v>258.4542133930499</v>
+        <v>258.4542133930494</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5568,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>80.15773177900033</v>
+        <v>173.6082874113513</v>
       </c>
       <c r="C18" t="n">
-        <v>80.15773177900033</v>
+        <v>173.6082874113513</v>
       </c>
       <c r="D18" t="n">
-        <v>80.15773177900033</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="E18" t="n">
-        <v>80.15773177900033</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="F18" t="n">
-        <v>6.613012871767528</v>
+        <v>90.11065014155943</v>
       </c>
       <c r="G18" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H18" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I18" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J18" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K18" t="n">
-        <v>45.61006634330798</v>
+        <v>45.61006634330796</v>
       </c>
       <c r="L18" t="n">
-        <v>85.14254072400692</v>
+        <v>127.446100631431</v>
       </c>
       <c r="M18" t="n">
-        <v>166.9785750121301</v>
+        <v>209.282134919554</v>
       </c>
       <c r="N18" t="n">
-        <v>248.8146093002532</v>
+        <v>209.282134919554</v>
       </c>
       <c r="O18" t="n">
-        <v>330.6506435883764</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="P18" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="Q18" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="R18" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="S18" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="T18" t="n">
-        <v>247.1530063185844</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="U18" t="n">
-        <v>247.1530063185844</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="V18" t="n">
-        <v>163.6553690487924</v>
+        <v>247.153006318584</v>
       </c>
       <c r="W18" t="n">
-        <v>163.6553690487924</v>
+        <v>247.153006318584</v>
       </c>
       <c r="X18" t="n">
-        <v>163.6553690487924</v>
+        <v>247.153006318584</v>
       </c>
       <c r="Y18" t="n">
-        <v>80.15773177900033</v>
+        <v>173.6082874113513</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="M19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="N19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="O19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="P19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Q19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="R19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="S19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="T19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="U19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="V19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="W19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="X19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>220.1473307371745</v>
+        <v>220.147330737174</v>
       </c>
       <c r="C20" t="n">
-        <v>205.9634208051923</v>
+        <v>205.963420805192</v>
       </c>
       <c r="D20" t="n">
-        <v>204.3384378822523</v>
+        <v>204.3384378822518</v>
       </c>
       <c r="E20" t="n">
-        <v>168.6662302932421</v>
+        <v>168.6662302932422</v>
       </c>
       <c r="F20" t="n">
-        <v>100.9532776755684</v>
+        <v>100.9532776755685</v>
       </c>
       <c r="G20" t="n">
-        <v>17.45564040577631</v>
+        <v>17.45564040577624</v>
       </c>
       <c r="H20" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I20" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J20" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K20" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L20" t="n">
         <v>55.22196873020039</v>
       </c>
       <c r="M20" t="n">
-        <v>137.0580030183235</v>
+        <v>137.0580030183234</v>
       </c>
       <c r="N20" t="n">
-        <v>214.5207806827081</v>
+        <v>214.520780682708</v>
       </c>
       <c r="O20" t="n">
-        <v>250.757326297622</v>
+        <v>250.7573262976219</v>
       </c>
       <c r="P20" t="n">
-        <v>250.757326297622</v>
+        <v>250.7573262976219</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.757326297622</v>
+        <v>250.7573262976219</v>
       </c>
       <c r="R20" t="n">
-        <v>250.757326297622</v>
+        <v>250.7573262976219</v>
       </c>
       <c r="S20" t="n">
-        <v>330.6506435883764</v>
+        <v>250.7573262976219</v>
       </c>
       <c r="T20" t="n">
-        <v>330.6506435883764</v>
+        <v>250.7573262976219</v>
       </c>
       <c r="U20" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="V20" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="W20" t="n">
-        <v>328.9001008840833</v>
+        <v>328.9001008840827</v>
       </c>
       <c r="X20" t="n">
-        <v>305.0422344737908</v>
+        <v>305.0422344737903</v>
       </c>
       <c r="Y20" t="n">
-        <v>258.45421339305</v>
+        <v>258.4542133930496</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>163.6553690487924</v>
+        <v>59.00113892206281</v>
       </c>
       <c r="C21" t="n">
-        <v>163.6553690487924</v>
+        <v>59.00113892206281</v>
       </c>
       <c r="D21" t="n">
-        <v>163.6553690487924</v>
+        <v>59.00113892206281</v>
       </c>
       <c r="E21" t="n">
-        <v>163.6553690487924</v>
+        <v>59.00113892206281</v>
       </c>
       <c r="F21" t="n">
-        <v>80.15773177900033</v>
+        <v>59.00113892206281</v>
       </c>
       <c r="G21" t="n">
-        <v>59.00113892206282</v>
+        <v>59.00113892206281</v>
       </c>
       <c r="H21" t="n">
-        <v>59.00113892206282</v>
+        <v>59.00113892206281</v>
       </c>
       <c r="I21" t="n">
-        <v>59.00113892206282</v>
+        <v>59.00113892206281</v>
       </c>
       <c r="J21" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K21" t="n">
-        <v>6.613012871767528</v>
+        <v>45.61006634330796</v>
       </c>
       <c r="L21" t="n">
-        <v>6.613012871767528</v>
+        <v>127.446100631431</v>
       </c>
       <c r="M21" t="n">
-        <v>85.14254072400692</v>
+        <v>127.446100631431</v>
       </c>
       <c r="N21" t="n">
-        <v>166.9785750121301</v>
+        <v>166.9785750121299</v>
       </c>
       <c r="O21" t="n">
-        <v>248.8146093002532</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="P21" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="Q21" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="R21" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="S21" t="n">
-        <v>330.6506435883764</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="T21" t="n">
-        <v>330.6506435883764</v>
+        <v>247.153006318584</v>
       </c>
       <c r="U21" t="n">
-        <v>330.6506435883764</v>
+        <v>247.153006318584</v>
       </c>
       <c r="V21" t="n">
-        <v>330.6506435883764</v>
+        <v>247.153006318584</v>
       </c>
       <c r="W21" t="n">
-        <v>330.6506435883764</v>
+        <v>247.153006318584</v>
       </c>
       <c r="X21" t="n">
-        <v>247.1530063185844</v>
+        <v>225.9964134616466</v>
       </c>
       <c r="Y21" t="n">
-        <v>247.1530063185844</v>
+        <v>142.4987761918547</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="M22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="N22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="O22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="P22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Q22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="R22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="S22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="T22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="U22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="V22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="W22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="X22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Y22" t="n">
-        <v>6.613012871767528</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>220.1473307371738</v>
+        <v>220.1473307371741</v>
       </c>
       <c r="C23" t="n">
-        <v>205.9634208051917</v>
+        <v>205.9634208051921</v>
       </c>
       <c r="D23" t="n">
-        <v>204.3384378822515</v>
+        <v>204.338437882252</v>
       </c>
       <c r="E23" t="n">
-        <v>168.6662302932418</v>
+        <v>168.6662302932423</v>
       </c>
       <c r="F23" t="n">
-        <v>100.9532776755681</v>
+        <v>100.9532776755687</v>
       </c>
       <c r="G23" t="n">
-        <v>17.45564040577629</v>
+        <v>17.45564040577624</v>
       </c>
       <c r="H23" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I23" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J23" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K23" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L23" t="n">
-        <v>55.22196873020037</v>
+        <v>55.22196873020039</v>
       </c>
       <c r="M23" t="n">
         <v>137.0580030183234</v>
       </c>
       <c r="N23" t="n">
-        <v>214.5207806827079</v>
+        <v>214.520780682708</v>
       </c>
       <c r="O23" t="n">
-        <v>250.7573262976218</v>
+        <v>250.7573262976219</v>
       </c>
       <c r="P23" t="n">
-        <v>250.7573262976218</v>
+        <v>250.7573262976219</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7573262976218</v>
+        <v>250.7573262976219</v>
       </c>
       <c r="R23" t="n">
-        <v>250.7573262976218</v>
+        <v>250.7573262976219</v>
       </c>
       <c r="S23" t="n">
-        <v>250.7573262976218</v>
+        <v>250.7573262976219</v>
       </c>
       <c r="T23" t="n">
-        <v>250.7573262976218</v>
+        <v>315.519837078405</v>
       </c>
       <c r="U23" t="n">
-        <v>315.5198370784049</v>
+        <v>315.519837078405</v>
       </c>
       <c r="V23" t="n">
-        <v>330.6506435883758</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="W23" t="n">
-        <v>328.9001008840826</v>
+        <v>328.9001008840827</v>
       </c>
       <c r="X23" t="n">
-        <v>305.0422344737901</v>
+        <v>305.0422344737903</v>
       </c>
       <c r="Y23" t="n">
-        <v>258.4542133930493</v>
+        <v>258.4542133930496</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>225.9964134616466</v>
+        <v>163.6553690487921</v>
       </c>
       <c r="C24" t="n">
-        <v>225.9964134616466</v>
+        <v>163.6553690487921</v>
       </c>
       <c r="D24" t="n">
-        <v>142.4987761918547</v>
+        <v>80.15773177900022</v>
       </c>
       <c r="E24" t="n">
-        <v>142.4987761918547</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F24" t="n">
-        <v>59.00113892206281</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G24" t="n">
-        <v>59.00113892206281</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H24" t="n">
-        <v>59.00113892206281</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I24" t="n">
-        <v>59.00113892206281</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J24" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K24" t="n">
-        <v>45.61006634330796</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L24" t="n">
-        <v>127.446100631431</v>
+        <v>88.44904715989057</v>
       </c>
       <c r="M24" t="n">
-        <v>166.9785750121298</v>
+        <v>170.2850814480136</v>
       </c>
       <c r="N24" t="n">
-        <v>166.9785750121298</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="O24" t="n">
-        <v>248.8146093002528</v>
+        <v>248.8146093002529</v>
       </c>
       <c r="P24" t="n">
-        <v>330.6506435883758</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="Q24" t="n">
-        <v>324.5455571408582</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="R24" t="n">
-        <v>324.5455571408582</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="S24" t="n">
-        <v>324.5455571408582</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="T24" t="n">
-        <v>241.0479198710663</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="U24" t="n">
-        <v>241.0479198710663</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="V24" t="n">
-        <v>241.0479198710663</v>
+        <v>330.6506435883759</v>
       </c>
       <c r="W24" t="n">
-        <v>241.0479198710663</v>
+        <v>247.153006318584</v>
       </c>
       <c r="X24" t="n">
-        <v>241.0479198710663</v>
+        <v>163.6553690487921</v>
       </c>
       <c r="Y24" t="n">
-        <v>225.9964134616466</v>
+        <v>163.6553690487921</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="C25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="D25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="E25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="F25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="G25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="H25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="I25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="J25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="K25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="L25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="M25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="N25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="O25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="P25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Q25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="R25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="S25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="T25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="U25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="V25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="W25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="X25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.613012871767516</v>
+        <v>6.613012871767519</v>
       </c>
     </row>
     <row r="26">
@@ -6203,58 +6203,58 @@
         <v>1024.989143861832</v>
       </c>
       <c r="C26" t="n">
-        <v>886.2416502123535</v>
+        <v>886.2416502123531</v>
       </c>
       <c r="D26" t="n">
-        <v>760.0530835719167</v>
+        <v>760.053083571916</v>
       </c>
       <c r="E26" t="n">
-        <v>599.8172922654101</v>
+        <v>599.8172922654094</v>
       </c>
       <c r="F26" t="n">
-        <v>407.5407559302394</v>
+        <v>407.5407559302387</v>
       </c>
       <c r="G26" t="n">
-        <v>199.4795349429505</v>
+        <v>199.4795349429502</v>
       </c>
       <c r="H26" t="n">
-        <v>64.07332369144451</v>
+        <v>64.07332369144449</v>
       </c>
       <c r="I26" t="n">
         <v>36.09517858874311</v>
       </c>
       <c r="J26" t="n">
-        <v>171.8138854154932</v>
+        <v>171.8138854154936</v>
       </c>
       <c r="K26" t="n">
-        <v>377.3929389292097</v>
+        <v>377.3929389292102</v>
       </c>
       <c r="L26" t="n">
-        <v>636.7189186691552</v>
+        <v>636.7189186691558</v>
       </c>
       <c r="M26" t="n">
-        <v>930.3987315707759</v>
+        <v>930.3987315707766</v>
       </c>
       <c r="N26" t="n">
-        <v>1218.578533116673</v>
+        <v>1218.578533116674</v>
       </c>
       <c r="O26" t="n">
         <v>1465.5321026131</v>
       </c>
       <c r="P26" t="n">
-        <v>1663.028607199424</v>
+        <v>1663.028607199425</v>
       </c>
       <c r="Q26" t="n">
-        <v>1786.223060293145</v>
+        <v>1786.223060293144</v>
       </c>
       <c r="R26" t="n">
         <v>1804.758929437155</v>
       </c>
       <c r="S26" t="n">
-        <v>1790.217396941447</v>
+        <v>1790.217396941448</v>
       </c>
       <c r="T26" t="n">
-        <v>1780.55325716287</v>
+        <v>1780.553257162871</v>
       </c>
       <c r="U26" t="n">
         <v>1742.872352129444</v>
@@ -6266,7 +6266,7 @@
         <v>1507.432665161232</v>
       </c>
       <c r="X26" t="n">
-        <v>1359.011215033443</v>
+        <v>1359.011215033442</v>
       </c>
       <c r="Y26" t="n">
         <v>1187.859610235205</v>
@@ -6279,19 +6279,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>209.6583824673286</v>
+        <v>186.3357221775713</v>
       </c>
       <c r="C27" t="n">
-        <v>209.6583824673286</v>
+        <v>186.3357221775713</v>
       </c>
       <c r="D27" t="n">
-        <v>209.6583824673286</v>
+        <v>186.3357221775713</v>
       </c>
       <c r="E27" t="n">
-        <v>36.09517858874311</v>
+        <v>186.3357221775713</v>
       </c>
       <c r="F27" t="n">
-        <v>36.09517858874311</v>
+        <v>186.3357221775713</v>
       </c>
       <c r="G27" t="n">
         <v>36.09517858874311</v>
@@ -6333,22 +6333,22 @@
         <v>801.7553535343916</v>
       </c>
       <c r="T27" t="n">
-        <v>799.6347665413331</v>
+        <v>584.6393335431567</v>
       </c>
       <c r="U27" t="n">
-        <v>775.0063166294203</v>
+        <v>345.0154506330676</v>
       </c>
       <c r="V27" t="n">
-        <v>746.9220315312308</v>
+        <v>255.8966799007269</v>
       </c>
       <c r="W27" t="n">
-        <v>477.5234622615221</v>
+        <v>201.4935436291946</v>
       </c>
       <c r="X27" t="n">
-        <v>258.0154678782185</v>
+        <v>196.9809822440673</v>
       </c>
       <c r="Y27" t="n">
-        <v>209.6583824673286</v>
+        <v>186.3357221775713</v>
       </c>
     </row>
     <row r="28">
@@ -6373,58 +6373,58 @@
         <v>36.09517858874311</v>
       </c>
       <c r="G28" t="n">
-        <v>79.80380222779041</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="H28" t="n">
-        <v>79.80380222779041</v>
+        <v>82.69376572701285</v>
       </c>
       <c r="I28" t="n">
-        <v>79.80380222779041</v>
+        <v>82.69376572701285</v>
       </c>
       <c r="J28" t="n">
-        <v>79.80380222779041</v>
+        <v>82.69376572701285</v>
       </c>
       <c r="K28" t="n">
-        <v>79.80380222779041</v>
+        <v>82.69376572701285</v>
       </c>
       <c r="L28" t="n">
-        <v>96.37045088625365</v>
+        <v>82.69376572701285</v>
       </c>
       <c r="M28" t="n">
-        <v>96.37045088625365</v>
+        <v>185.5203561027681</v>
       </c>
       <c r="N28" t="n">
-        <v>96.37045088625365</v>
+        <v>185.5203561027681</v>
       </c>
       <c r="O28" t="n">
-        <v>270.7419715358033</v>
+        <v>185.5203561027681</v>
       </c>
       <c r="P28" t="n">
-        <v>270.7419715358033</v>
+        <v>185.5203561027681</v>
       </c>
       <c r="Q28" t="n">
-        <v>270.7419715358033</v>
+        <v>270.7419715358031</v>
       </c>
       <c r="R28" t="n">
-        <v>270.7419715358033</v>
+        <v>270.7419715358031</v>
       </c>
       <c r="S28" t="n">
-        <v>248.0166282098074</v>
+        <v>248.0166282098073</v>
       </c>
       <c r="T28" t="n">
-        <v>237.0136820482057</v>
+        <v>237.0136820482056</v>
       </c>
       <c r="U28" t="n">
-        <v>160.4371339659329</v>
+        <v>160.4371339659328</v>
       </c>
       <c r="V28" t="n">
-        <v>127.8477031414326</v>
+        <v>127.8477031414325</v>
       </c>
       <c r="W28" t="n">
-        <v>49.5999976655328</v>
+        <v>49.59999766553275</v>
       </c>
       <c r="X28" t="n">
-        <v>40.43436459477729</v>
+        <v>40.43436459477726</v>
       </c>
       <c r="Y28" t="n">
         <v>36.09517858874311</v>
@@ -6437,31 +6437,31 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1024.989143861833</v>
+        <v>1024.989143861832</v>
       </c>
       <c r="C29" t="n">
-        <v>886.2416502123536</v>
+        <v>886.2416502123527</v>
       </c>
       <c r="D29" t="n">
-        <v>760.0530835719165</v>
+        <v>760.0530835719156</v>
       </c>
       <c r="E29" t="n">
-        <v>599.8172922654098</v>
+        <v>599.817292265409</v>
       </c>
       <c r="F29" t="n">
-        <v>407.5407559302391</v>
+        <v>407.5407559302384</v>
       </c>
       <c r="G29" t="n">
-        <v>199.4795349429503</v>
+        <v>199.4795349429496</v>
       </c>
       <c r="H29" t="n">
-        <v>64.07332369144459</v>
+        <v>64.07332369144449</v>
       </c>
       <c r="I29" t="n">
         <v>36.09517858874311</v>
       </c>
       <c r="J29" t="n">
-        <v>171.8138854154937</v>
+        <v>171.8138854154936</v>
       </c>
       <c r="K29" t="n">
         <v>377.3929389292102</v>
@@ -6470,16 +6470,16 @@
         <v>636.7189186691558</v>
       </c>
       <c r="M29" t="n">
-        <v>930.3987315707762</v>
+        <v>930.3987315707766</v>
       </c>
       <c r="N29" t="n">
-        <v>1218.578533116673</v>
+        <v>1218.578533116674</v>
       </c>
       <c r="O29" t="n">
         <v>1465.5321026131</v>
       </c>
       <c r="P29" t="n">
-        <v>1663.028607199424</v>
+        <v>1663.028607199425</v>
       </c>
       <c r="Q29" t="n">
         <v>1786.223060293145</v>
@@ -6488,25 +6488,25 @@
         <v>1804.758929437155</v>
       </c>
       <c r="S29" t="n">
-        <v>1790.217396941448</v>
+        <v>1790.217396941446</v>
       </c>
       <c r="T29" t="n">
-        <v>1780.553257162871</v>
+        <v>1780.55325716287</v>
       </c>
       <c r="U29" t="n">
-        <v>1742.872352129444</v>
+        <v>1742.872352129443</v>
       </c>
       <c r="V29" t="n">
-        <v>1633.746791583023</v>
+        <v>1633.746791583022</v>
       </c>
       <c r="W29" t="n">
-        <v>1507.432665161233</v>
+        <v>1507.432665161231</v>
       </c>
       <c r="X29" t="n">
-        <v>1359.011215033443</v>
+        <v>1359.011215033442</v>
       </c>
       <c r="Y29" t="n">
-        <v>1187.859610235205</v>
+        <v>1187.859610235204</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>247.3702078117222</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="C30" t="n">
-        <v>196.522894871499</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="D30" t="n">
-        <v>196.522894871499</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="E30" t="n">
-        <v>196.522894871499</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="F30" t="n">
         <v>36.09517858874311</v>
@@ -6570,22 +6570,22 @@
         <v>801.7553535343916</v>
       </c>
       <c r="T30" t="n">
-        <v>799.634766541333</v>
+        <v>799.6347665413331</v>
       </c>
       <c r="U30" t="n">
-        <v>775.0063166294202</v>
+        <v>563.7312874064409</v>
       </c>
       <c r="V30" t="n">
-        <v>531.9265985330543</v>
+        <v>535.6470023082513</v>
       </c>
       <c r="W30" t="n">
-        <v>262.5280292633456</v>
+        <v>266.2484330385427</v>
       </c>
       <c r="X30" t="n">
-        <v>258.0154678782183</v>
+        <v>46.74043865523908</v>
       </c>
       <c r="Y30" t="n">
-        <v>247.3702078117222</v>
+        <v>36.09517858874311</v>
       </c>
     </row>
     <row r="31">
@@ -6601,67 +6601,67 @@
         <v>36.09517858874311</v>
       </c>
       <c r="D31" t="n">
-        <v>48.69646700698282</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="E31" t="n">
-        <v>48.69646700698282</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="F31" t="n">
-        <v>48.69646700698282</v>
+        <v>36.09517858874311</v>
       </c>
       <c r="G31" t="n">
-        <v>48.69646700698282</v>
+        <v>79.80380222779044</v>
       </c>
       <c r="H31" t="n">
-        <v>48.69646700698282</v>
+        <v>79.80380222779044</v>
       </c>
       <c r="I31" t="n">
-        <v>96.3704508862541</v>
+        <v>79.80380222779044</v>
       </c>
       <c r="J31" t="n">
-        <v>96.3704508862541</v>
+        <v>171.8630569361072</v>
       </c>
       <c r="K31" t="n">
-        <v>96.3704508862541</v>
+        <v>171.8630569361072</v>
       </c>
       <c r="L31" t="n">
-        <v>96.3704508862541</v>
+        <v>171.8630569361072</v>
       </c>
       <c r="M31" t="n">
-        <v>96.3704508862541</v>
+        <v>261.1792922659534</v>
       </c>
       <c r="N31" t="n">
-        <v>96.3704508862541</v>
+        <v>261.1792922659534</v>
       </c>
       <c r="O31" t="n">
-        <v>270.7419715358037</v>
+        <v>261.1792922659534</v>
       </c>
       <c r="P31" t="n">
-        <v>270.7419715358037</v>
+        <v>261.1792922659534</v>
       </c>
       <c r="Q31" t="n">
-        <v>270.7419715358037</v>
+        <v>261.1792922659534</v>
       </c>
       <c r="R31" t="n">
-        <v>270.7419715358037</v>
+        <v>270.7419715358031</v>
       </c>
       <c r="S31" t="n">
-        <v>248.0166282098078</v>
+        <v>248.0166282098073</v>
       </c>
       <c r="T31" t="n">
-        <v>237.013682048206</v>
+        <v>237.0136820482056</v>
       </c>
       <c r="U31" t="n">
-        <v>160.4371339659331</v>
+        <v>160.4371339659328</v>
       </c>
       <c r="V31" t="n">
-        <v>127.8477031414327</v>
+        <v>127.8477031414325</v>
       </c>
       <c r="W31" t="n">
-        <v>49.59999766553292</v>
+        <v>49.59999766553275</v>
       </c>
       <c r="X31" t="n">
-        <v>40.43436459477735</v>
+        <v>40.43436459477726</v>
       </c>
       <c r="Y31" t="n">
         <v>36.09517858874311</v>
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1024.989143861832</v>
+        <v>1024.989143861833</v>
       </c>
       <c r="C32" t="n">
-        <v>886.2416502123531</v>
+        <v>886.2416502123539</v>
       </c>
       <c r="D32" t="n">
-        <v>760.053083571916</v>
+        <v>760.0530835719168</v>
       </c>
       <c r="E32" t="n">
-        <v>599.8172922654094</v>
+        <v>599.8172922654101</v>
       </c>
       <c r="F32" t="n">
-        <v>407.5407559302387</v>
+        <v>407.5407559302394</v>
       </c>
       <c r="G32" t="n">
-        <v>199.4795349429502</v>
+        <v>199.4795349429504</v>
       </c>
       <c r="H32" t="n">
-        <v>64.07332369144449</v>
+        <v>64.07332369144461</v>
       </c>
       <c r="I32" t="n">
         <v>36.09517858874311</v>
@@ -6701,22 +6701,22 @@
         <v>171.8138854154936</v>
       </c>
       <c r="K32" t="n">
-        <v>377.3929389292102</v>
+        <v>377.3929389292099</v>
       </c>
       <c r="L32" t="n">
-        <v>636.7189186691558</v>
+        <v>636.7189186691554</v>
       </c>
       <c r="M32" t="n">
-        <v>930.3987315707766</v>
+        <v>930.3987315707762</v>
       </c>
       <c r="N32" t="n">
-        <v>1218.578533116674</v>
+        <v>1218.578533116673</v>
       </c>
       <c r="O32" t="n">
         <v>1465.5321026131</v>
       </c>
       <c r="P32" t="n">
-        <v>1663.028607199425</v>
+        <v>1663.028607199424</v>
       </c>
       <c r="Q32" t="n">
         <v>1786.223060293145</v>
@@ -6731,16 +6731,16 @@
         <v>1780.553257162871</v>
       </c>
       <c r="U32" t="n">
-        <v>1742.872352129444</v>
+        <v>1742.872352129445</v>
       </c>
       <c r="V32" t="n">
-        <v>1633.746791583022</v>
+        <v>1633.746791583023</v>
       </c>
       <c r="W32" t="n">
-        <v>1507.432665161232</v>
+        <v>1507.432665161233</v>
       </c>
       <c r="X32" t="n">
-        <v>1359.011215033442</v>
+        <v>1359.011215033443</v>
       </c>
       <c r="Y32" t="n">
         <v>1187.859610235205</v>
@@ -6753,28 +6753,28 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>456.2605543623812</v>
+        <v>88.48330463903841</v>
       </c>
       <c r="C33" t="n">
-        <v>266.848280095345</v>
+        <v>88.48330463903841</v>
       </c>
       <c r="D33" t="n">
-        <v>163.0376771054983</v>
+        <v>88.48330463903841</v>
       </c>
       <c r="E33" t="n">
-        <v>163.0376771054983</v>
+        <v>88.48330463903841</v>
       </c>
       <c r="F33" t="n">
-        <v>163.0376771054983</v>
+        <v>88.48330463903841</v>
       </c>
       <c r="G33" t="n">
-        <v>163.0376771054983</v>
+        <v>88.48330463903841</v>
       </c>
       <c r="H33" t="n">
-        <v>36.09517858874311</v>
+        <v>88.48330463903841</v>
       </c>
       <c r="I33" t="n">
-        <v>36.09517858874311</v>
+        <v>88.48330463903841</v>
       </c>
       <c r="J33" t="n">
         <v>36.09517858874311</v>
@@ -6798,31 +6798,31 @@
         <v>801.7553535343916</v>
       </c>
       <c r="Q33" t="n">
-        <v>795.6502670868739</v>
+        <v>801.7553535343916</v>
       </c>
       <c r="R33" t="n">
-        <v>795.6502670868739</v>
+        <v>801.7553535343916</v>
       </c>
       <c r="S33" t="n">
-        <v>795.6502670868739</v>
+        <v>608.3506240083548</v>
       </c>
       <c r="T33" t="n">
-        <v>793.5296800938154</v>
+        <v>425.7524303704729</v>
       </c>
       <c r="U33" t="n">
-        <v>768.9012301819027</v>
+        <v>401.1239804585601</v>
       </c>
       <c r="V33" t="n">
-        <v>525.8215120855368</v>
+        <v>373.0396953603705</v>
       </c>
       <c r="W33" t="n">
-        <v>471.4183758140045</v>
+        <v>103.6411260906618</v>
       </c>
       <c r="X33" t="n">
-        <v>466.9058144288772</v>
+        <v>99.12856470553447</v>
       </c>
       <c r="Y33" t="n">
-        <v>456.2605543623812</v>
+        <v>88.48330463903841</v>
       </c>
     </row>
     <row r="34">
@@ -6841,64 +6841,64 @@
         <v>36.09517858874311</v>
       </c>
       <c r="E34" t="n">
-        <v>106.552822670153</v>
+        <v>87.30010930916855</v>
       </c>
       <c r="F34" t="n">
-        <v>106.552822670153</v>
+        <v>87.30010930916855</v>
       </c>
       <c r="G34" t="n">
-        <v>106.552822670153</v>
+        <v>131.0087329482158</v>
       </c>
       <c r="H34" t="n">
-        <v>106.552822670153</v>
+        <v>131.0087329482158</v>
       </c>
       <c r="I34" t="n">
-        <v>106.552822670153</v>
+        <v>178.6827168274871</v>
       </c>
       <c r="J34" t="n">
-        <v>106.552822670153</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="K34" t="n">
-        <v>106.552822670153</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="L34" t="n">
-        <v>106.552822670153</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="M34" t="n">
-        <v>106.552822670153</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="N34" t="n">
-        <v>106.552822670153</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="O34" t="n">
-        <v>106.552822670153</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="P34" t="n">
-        <v>260.0251400837768</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="Q34" t="n">
-        <v>261.1792922659534</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="R34" t="n">
-        <v>270.7419715358031</v>
+        <v>270.7419715358037</v>
       </c>
       <c r="S34" t="n">
-        <v>248.0166282098073</v>
+        <v>248.0166282098078</v>
       </c>
       <c r="T34" t="n">
-        <v>237.0136820482056</v>
+        <v>237.013682048206</v>
       </c>
       <c r="U34" t="n">
-        <v>160.4371339659328</v>
+        <v>160.4371339659331</v>
       </c>
       <c r="V34" t="n">
-        <v>127.8477031414325</v>
+        <v>127.8477031414327</v>
       </c>
       <c r="W34" t="n">
-        <v>49.59999766553275</v>
+        <v>49.59999766553292</v>
       </c>
       <c r="X34" t="n">
-        <v>40.43436459477726</v>
+        <v>40.43436459477735</v>
       </c>
       <c r="Y34" t="n">
         <v>36.09517858874311</v>
@@ -6920,58 +6920,58 @@
         <v>638.1200866838703</v>
       </c>
       <c r="E35" t="n">
-        <v>500.9482921806194</v>
+        <v>500.9482921806193</v>
       </c>
       <c r="F35" t="n">
-        <v>331.7357526487045</v>
+        <v>331.7357526487043</v>
       </c>
       <c r="G35" t="n">
-        <v>146.7385284646713</v>
+        <v>146.7385284646711</v>
       </c>
       <c r="H35" t="n">
-        <v>34.39631401642126</v>
+        <v>34.39631401642134</v>
       </c>
       <c r="I35" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="J35" t="n">
-        <v>187.805895810597</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="K35" t="n">
-        <v>187.805895810597</v>
+        <v>257.666242497563</v>
       </c>
       <c r="L35" t="n">
-        <v>469.7368988174134</v>
+        <v>539.5972455043793</v>
       </c>
       <c r="M35" t="n">
-        <v>624.1695807408086</v>
+        <v>844.3584280193051</v>
       </c>
       <c r="N35" t="n">
-        <v>934.9544055535766</v>
+        <v>921.8212056836896</v>
       </c>
       <c r="O35" t="n">
-        <v>1204.512998316874</v>
+        <v>1191.379798446987</v>
       </c>
       <c r="P35" t="n">
-        <v>1424.614526170069</v>
+        <v>1411.481326300182</v>
       </c>
       <c r="Q35" t="n">
-        <v>1424.614526170069</v>
+        <v>1411.481326300182</v>
       </c>
       <c r="R35" t="n">
-        <v>1465.755418580951</v>
+        <v>1452.622218711064</v>
       </c>
       <c r="S35" t="n">
-        <v>1474.108285848779</v>
+        <v>1460.975085978892</v>
       </c>
       <c r="T35" t="n">
-        <v>1474.108285848779</v>
+        <v>1474.10828584878</v>
       </c>
       <c r="U35" t="n">
-        <v>1459.491377618608</v>
+        <v>1459.491377618609</v>
       </c>
       <c r="V35" t="n">
-        <v>1373.429813875442</v>
+        <v>1373.429813875443</v>
       </c>
       <c r="W35" t="n">
         <v>1270.179684256908</v>
@@ -6980,7 +6980,7 @@
         <v>1144.822230932374</v>
       </c>
       <c r="Y35" t="n">
-        <v>996.7346229373919</v>
+        <v>996.7346229373921</v>
       </c>
     </row>
     <row r="36">
@@ -6990,34 +6990,34 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>242.2980080500268</v>
+        <v>317.2047804726991</v>
       </c>
       <c r="C36" t="n">
-        <v>242.2980080500268</v>
+        <v>317.2047804726991</v>
       </c>
       <c r="D36" t="n">
-        <v>242.2980080500268</v>
+        <v>156.4246642337308</v>
       </c>
       <c r="E36" t="n">
-        <v>242.2980080500268</v>
+        <v>156.4246642337308</v>
       </c>
       <c r="F36" t="n">
-        <v>81.87029176727087</v>
+        <v>156.4246642337308</v>
       </c>
       <c r="G36" t="n">
-        <v>81.87029176727087</v>
+        <v>156.4246642337308</v>
       </c>
       <c r="H36" t="n">
-        <v>81.87029176727087</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="I36" t="n">
-        <v>81.87029176727087</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="J36" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="K36" t="n">
-        <v>68.47921918851603</v>
+        <v>68.47921918851604</v>
       </c>
       <c r="L36" t="n">
         <v>187.2021124509166</v>
@@ -7035,31 +7035,31 @@
         <v>795.1423406626241</v>
       </c>
       <c r="Q36" t="n">
-        <v>789.0372542151064</v>
+        <v>795.1423406626241</v>
       </c>
       <c r="R36" t="n">
-        <v>789.0372542151064</v>
+        <v>795.1423406626241</v>
       </c>
       <c r="S36" t="n">
-        <v>789.0372542151064</v>
+        <v>795.1423406626241</v>
       </c>
       <c r="T36" t="n">
-        <v>571.9212342238715</v>
+        <v>795.1423406626241</v>
       </c>
       <c r="U36" t="n">
-        <v>570.3567811152145</v>
+        <v>555.518457752535</v>
       </c>
       <c r="V36" t="n">
-        <v>493.1451419016071</v>
+        <v>550.4981694576011</v>
       </c>
       <c r="W36" t="n">
-        <v>461.8060024333304</v>
+        <v>519.1590299893244</v>
       </c>
       <c r="X36" t="n">
-        <v>242.2980080500268</v>
+        <v>495.7406333996342</v>
       </c>
       <c r="Y36" t="n">
-        <v>242.2980080500268</v>
+        <v>495.7406333996342</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="C37" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="D37" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="E37" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="F37" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="G37" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="H37" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="I37" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="J37" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="K37" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="L37" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="M37" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="N37" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="O37" t="n">
-        <v>147.7038596898813</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="P37" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="Q37" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="R37" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="S37" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="T37" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="U37" t="n">
-        <v>94.19130841086424</v>
+        <v>94.19130841086437</v>
       </c>
       <c r="V37" t="n">
-        <v>84.66587438961962</v>
+        <v>84.66587438961969</v>
       </c>
       <c r="W37" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="X37" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="Y37" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
     </row>
     <row r="38">
@@ -7148,58 +7148,58 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>856.9281533672753</v>
+        <v>856.9281533672751</v>
       </c>
       <c r="C38" t="n">
-        <v>741.2446565210519</v>
+        <v>741.2446565210516</v>
       </c>
       <c r="D38" t="n">
-        <v>638.1200866838703</v>
+        <v>638.1200866838701</v>
       </c>
       <c r="E38" t="n">
-        <v>500.9482921806192</v>
+        <v>500.9482921806189</v>
       </c>
       <c r="F38" t="n">
-        <v>331.7357526487043</v>
+        <v>331.7357526487039</v>
       </c>
       <c r="G38" t="n">
-        <v>146.7385284646712</v>
+        <v>146.7385284646707</v>
       </c>
       <c r="H38" t="n">
-        <v>34.39631401642126</v>
+        <v>34.39631401642133</v>
       </c>
       <c r="I38" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="J38" t="n">
         <v>187.805895810597</v>
       </c>
       <c r="K38" t="n">
-        <v>415.9899725911845</v>
+        <v>415.9899725911844</v>
       </c>
       <c r="L38" t="n">
-        <v>697.920975598001</v>
+        <v>628.7293625084927</v>
       </c>
       <c r="M38" t="n">
-        <v>1014.205811766493</v>
+        <v>711.6921515286009</v>
       </c>
       <c r="N38" t="n">
-        <v>1229.445304324676</v>
+        <v>789.1549291929855</v>
       </c>
       <c r="O38" t="n">
-        <v>1265.68184993959</v>
+        <v>1058.713521956283</v>
       </c>
       <c r="P38" t="n">
-        <v>1265.68184993959</v>
+        <v>1278.815049809478</v>
       </c>
       <c r="Q38" t="n">
-        <v>1411.481326300181</v>
+        <v>1424.61452617007</v>
       </c>
       <c r="R38" t="n">
-        <v>1452.622218711063</v>
+        <v>1465.755418580951</v>
       </c>
       <c r="S38" t="n">
-        <v>1460.975085978891</v>
+        <v>1474.108285848779</v>
       </c>
       <c r="T38" t="n">
         <v>1474.108285848779</v>
@@ -7217,7 +7217,7 @@
         <v>1144.822230932374</v>
       </c>
       <c r="Y38" t="n">
-        <v>996.734622937392</v>
+        <v>996.7346229373919</v>
       </c>
     </row>
     <row r="39">
@@ -7227,31 +7227,31 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>189.9098819997315</v>
+        <v>218.8944399840119</v>
       </c>
       <c r="C39" t="n">
-        <v>189.9098819997315</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="D39" t="n">
-        <v>189.9098819997315</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="E39" t="n">
-        <v>189.9098819997315</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="F39" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="G39" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="H39" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="I39" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="J39" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="K39" t="n">
         <v>68.47921918851603</v>
@@ -7272,31 +7272,31 @@
         <v>795.1423406626241</v>
       </c>
       <c r="Q39" t="n">
-        <v>789.0372542151064</v>
+        <v>795.1423406626241</v>
       </c>
       <c r="R39" t="n">
-        <v>789.0372542151064</v>
+        <v>659.4672683158661</v>
       </c>
       <c r="S39" t="n">
-        <v>685.4011870563347</v>
+        <v>473.9343408471144</v>
       </c>
       <c r="T39" t="n">
-        <v>685.4011870563347</v>
+        <v>256.8183208558795</v>
       </c>
       <c r="U39" t="n">
-        <v>445.7773041462456</v>
+        <v>255.2538677472225</v>
       </c>
       <c r="V39" t="n">
-        <v>440.7570158513118</v>
+        <v>250.2335794522886</v>
       </c>
       <c r="W39" t="n">
-        <v>409.4178763830351</v>
+        <v>218.8944399840119</v>
       </c>
       <c r="X39" t="n">
-        <v>189.9098819997315</v>
+        <v>218.8944399840119</v>
       </c>
       <c r="Y39" t="n">
-        <v>189.9098819997315</v>
+        <v>218.8944399840119</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="C40" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="D40" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="E40" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="F40" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="G40" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="H40" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="I40" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="J40" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="K40" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="L40" t="n">
-        <v>147.7038596898813</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="M40" t="n">
-        <v>147.7038596898813</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="N40" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="O40" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="P40" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="Q40" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="R40" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="S40" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="T40" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898815</v>
       </c>
       <c r="U40" t="n">
-        <v>94.19130841086424</v>
+        <v>94.19130841086437</v>
       </c>
       <c r="V40" t="n">
-        <v>84.66587438961962</v>
+        <v>84.66587438961969</v>
       </c>
       <c r="W40" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="X40" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="Y40" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
     </row>
     <row r="41">
@@ -7385,67 +7385,67 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>856.9281533672752</v>
+        <v>856.9281533672756</v>
       </c>
       <c r="C41" t="n">
-        <v>741.2446565210518</v>
+        <v>741.2446565210522</v>
       </c>
       <c r="D41" t="n">
-        <v>638.1200866838703</v>
+        <v>638.1200866838708</v>
       </c>
       <c r="E41" t="n">
-        <v>500.9482921806194</v>
+        <v>500.9482921806199</v>
       </c>
       <c r="F41" t="n">
-        <v>331.7357526487045</v>
+        <v>331.735752648705</v>
       </c>
       <c r="G41" t="n">
-        <v>146.7385284646714</v>
+        <v>146.7385284646718</v>
       </c>
       <c r="H41" t="n">
-        <v>34.39631401642126</v>
+        <v>34.39631401642127</v>
       </c>
       <c r="I41" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="J41" t="n">
-        <v>29.48216571697558</v>
+        <v>87.12259318821651</v>
       </c>
       <c r="K41" t="n">
-        <v>257.6662424975631</v>
+        <v>87.12259318821651</v>
       </c>
       <c r="L41" t="n">
-        <v>539.5972455043795</v>
+        <v>369.0535961950329</v>
       </c>
       <c r="M41" t="n">
-        <v>622.5600345244877</v>
+        <v>685.3384323635246</v>
       </c>
       <c r="N41" t="n">
-        <v>933.3448593372558</v>
+        <v>996.1232571762928</v>
       </c>
       <c r="O41" t="n">
-        <v>1202.903452100553</v>
+        <v>1265.68184993959</v>
       </c>
       <c r="P41" t="n">
-        <v>1278.815049809478</v>
+        <v>1265.68184993959</v>
       </c>
       <c r="Q41" t="n">
-        <v>1424.614526170069</v>
+        <v>1411.481326300182</v>
       </c>
       <c r="R41" t="n">
-        <v>1465.755418580951</v>
+        <v>1452.622218711063</v>
       </c>
       <c r="S41" t="n">
-        <v>1474.108285848779</v>
+        <v>1460.975085978891</v>
       </c>
       <c r="T41" t="n">
         <v>1474.108285848779</v>
       </c>
       <c r="U41" t="n">
-        <v>1459.491377618608</v>
+        <v>1459.491377618609</v>
       </c>
       <c r="V41" t="n">
-        <v>1373.429813875442</v>
+        <v>1373.429813875443</v>
       </c>
       <c r="W41" t="n">
         <v>1270.179684256908</v>
@@ -7454,7 +7454,7 @@
         <v>1144.822230932374</v>
       </c>
       <c r="Y41" t="n">
-        <v>996.7346229373919</v>
+        <v>996.7346229373924</v>
       </c>
     </row>
     <row r="42">
@@ -7464,31 +7464,31 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>500.6806499461836</v>
+        <v>369.13498357284</v>
       </c>
       <c r="C42" t="n">
-        <v>311.2683756791474</v>
+        <v>179.7227093058038</v>
       </c>
       <c r="D42" t="n">
-        <v>311.2683756791474</v>
+        <v>179.7227093058038</v>
       </c>
       <c r="E42" t="n">
-        <v>137.7051718005618</v>
+        <v>179.7227093058038</v>
       </c>
       <c r="F42" t="n">
-        <v>137.7051718005618</v>
+        <v>179.7227093058038</v>
       </c>
       <c r="G42" t="n">
-        <v>137.7051718005618</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="H42" t="n">
-        <v>137.7051718005618</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="I42" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="J42" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="K42" t="n">
         <v>68.47921918851603</v>
@@ -7521,19 +7521,19 @@
         <v>795.1423406626241</v>
       </c>
       <c r="U42" t="n">
-        <v>555.518457752535</v>
+        <v>793.5778875539671</v>
       </c>
       <c r="V42" t="n">
-        <v>532.0197894144602</v>
+        <v>550.4981694576012</v>
       </c>
       <c r="W42" t="n">
-        <v>500.6806499461836</v>
+        <v>369.13498357284</v>
       </c>
       <c r="X42" t="n">
-        <v>500.6806499461836</v>
+        <v>369.13498357284</v>
       </c>
       <c r="Y42" t="n">
-        <v>500.6806499461836</v>
+        <v>369.13498357284</v>
       </c>
     </row>
     <row r="43">
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="C43" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="D43" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="E43" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="F43" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="G43" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="H43" t="n">
-        <v>98.68577612211624</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="I43" t="n">
-        <v>98.68577612211624</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="J43" t="n">
-        <v>98.68577612211624</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="K43" t="n">
-        <v>147.7038596898813</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="L43" t="n">
-        <v>147.7038596898813</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="M43" t="n">
-        <v>147.7038596898813</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="N43" t="n">
         <v>147.7038596898813</v>
@@ -7600,19 +7600,19 @@
         <v>147.7038596898813</v>
       </c>
       <c r="U43" t="n">
-        <v>94.19130841086424</v>
+        <v>94.19130841086425</v>
       </c>
       <c r="V43" t="n">
-        <v>84.66587438961962</v>
+        <v>84.66587438961963</v>
       </c>
       <c r="W43" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="X43" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="Y43" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
     </row>
     <row r="44">
@@ -7622,55 +7622,55 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>856.9281533672757</v>
+        <v>856.9281533672755</v>
       </c>
       <c r="C44" t="n">
-        <v>741.2446565210523</v>
+        <v>741.2446565210521</v>
       </c>
       <c r="D44" t="n">
-        <v>638.1200866838708</v>
+        <v>638.1200866838706</v>
       </c>
       <c r="E44" t="n">
-        <v>500.9482921806194</v>
+        <v>500.9482921806192</v>
       </c>
       <c r="F44" t="n">
-        <v>331.7357526487045</v>
+        <v>331.7357526487042</v>
       </c>
       <c r="G44" t="n">
-        <v>146.7385284646714</v>
+        <v>146.7385284646709</v>
       </c>
       <c r="H44" t="n">
-        <v>34.39631401642126</v>
+        <v>34.39631401642136</v>
       </c>
       <c r="I44" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="J44" t="n">
         <v>187.805895810597</v>
       </c>
       <c r="K44" t="n">
-        <v>187.805895810597</v>
+        <v>415.9899725911844</v>
       </c>
       <c r="L44" t="n">
-        <v>236.4148516690299</v>
+        <v>697.9209755980007</v>
       </c>
       <c r="M44" t="n">
-        <v>527.8638640589267</v>
+        <v>1014.205811766492</v>
       </c>
       <c r="N44" t="n">
-        <v>838.6486888716947</v>
+        <v>1091.668589430877</v>
       </c>
       <c r="O44" t="n">
-        <v>1108.207281634992</v>
+        <v>1127.905135045791</v>
       </c>
       <c r="P44" t="n">
-        <v>1328.308809488187</v>
+        <v>1348.006662898986</v>
       </c>
       <c r="Q44" t="n">
-        <v>1474.108285848779</v>
+        <v>1424.61452617007</v>
       </c>
       <c r="R44" t="n">
-        <v>1474.108285848779</v>
+        <v>1465.755418580952</v>
       </c>
       <c r="S44" t="n">
         <v>1474.108285848779</v>
@@ -7691,7 +7691,7 @@
         <v>1144.822230932375</v>
       </c>
       <c r="Y44" t="n">
-        <v>996.7346229373925</v>
+        <v>996.7346229373924</v>
       </c>
     </row>
     <row r="45">
@@ -7701,31 +7701,31 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>81.87029176727087</v>
+        <v>428.1386579179616</v>
       </c>
       <c r="C45" t="n">
-        <v>81.87029176727087</v>
+        <v>428.1386579179616</v>
       </c>
       <c r="D45" t="n">
-        <v>81.87029176727087</v>
+        <v>340.1504255885597</v>
       </c>
       <c r="E45" t="n">
-        <v>81.87029176727087</v>
+        <v>340.1504255885597</v>
       </c>
       <c r="F45" t="n">
-        <v>81.87029176727087</v>
+        <v>179.7227093058038</v>
       </c>
       <c r="G45" t="n">
-        <v>81.87029176727087</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="H45" t="n">
-        <v>81.87029176727087</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="I45" t="n">
-        <v>81.87029176727087</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="J45" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="K45" t="n">
         <v>68.47921918851603</v>
@@ -7746,31 +7746,31 @@
         <v>795.1423406626241</v>
       </c>
       <c r="Q45" t="n">
-        <v>789.0372542151064</v>
+        <v>795.1423406626241</v>
       </c>
       <c r="R45" t="n">
-        <v>789.0372542151064</v>
+        <v>659.4672683158661</v>
       </c>
       <c r="S45" t="n">
-        <v>789.0372542151064</v>
+        <v>466.0625387898293</v>
       </c>
       <c r="T45" t="n">
-        <v>789.0372542151064</v>
+        <v>466.0625387898293</v>
       </c>
       <c r="U45" t="n">
-        <v>549.4133713050173</v>
+        <v>464.4980856811723</v>
       </c>
       <c r="V45" t="n">
-        <v>511.2532785457863</v>
+        <v>459.4777973862383</v>
       </c>
       <c r="W45" t="n">
-        <v>479.9141390775096</v>
+        <v>428.1386579179616</v>
       </c>
       <c r="X45" t="n">
-        <v>260.406144694206</v>
+        <v>428.1386579179616</v>
       </c>
       <c r="Y45" t="n">
-        <v>260.406144694206</v>
+        <v>428.1386579179616</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>100.5852477012642</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="C46" t="n">
-        <v>100.5852477012642</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="D46" t="n">
-        <v>100.5852477012642</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="E46" t="n">
-        <v>100.5852477012642</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="F46" t="n">
-        <v>100.5852477012642</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="G46" t="n">
-        <v>100.5852477012642</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="H46" t="n">
-        <v>100.5852477012642</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="I46" t="n">
-        <v>100.5852477012642</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="J46" t="n">
-        <v>100.5852477012642</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="K46" t="n">
-        <v>100.5852477012642</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="L46" t="n">
-        <v>100.5852477012642</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="M46" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898816</v>
       </c>
       <c r="N46" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898816</v>
       </c>
       <c r="O46" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898816</v>
       </c>
       <c r="P46" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898816</v>
       </c>
       <c r="Q46" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898816</v>
       </c>
       <c r="R46" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898816</v>
       </c>
       <c r="S46" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898816</v>
       </c>
       <c r="T46" t="n">
-        <v>147.7038596898813</v>
+        <v>147.7038596898816</v>
       </c>
       <c r="U46" t="n">
-        <v>94.19130841086424</v>
+        <v>94.19130841086442</v>
       </c>
       <c r="V46" t="n">
-        <v>84.66587438961962</v>
+        <v>84.66587438961972</v>
       </c>
       <c r="W46" t="n">
-        <v>29.48216571697558</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="X46" t="n">
-        <v>43.10395201119903</v>
+        <v>29.48216571697559</v>
       </c>
       <c r="Y46" t="n">
-        <v>43.10395201119903</v>
+        <v>29.48216571697559</v>
       </c>
     </row>
   </sheetData>
@@ -8696,7 +8696,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M11" t="n">
-        <v>290.1466336104414</v>
+        <v>290.1466336104411</v>
       </c>
       <c r="N11" t="n">
         <v>283.4008070189657</v>
@@ -8769,22 +8769,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K12" t="n">
-        <v>131.9825104815849</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L12" t="n">
-        <v>120.3824293501763</v>
+        <v>203.0450902472701</v>
       </c>
       <c r="M12" t="n">
-        <v>199.2893595226801</v>
+        <v>116.626698625586</v>
       </c>
       <c r="N12" t="n">
-        <v>181.2801078349635</v>
+        <v>184.6200133257549</v>
       </c>
       <c r="O12" t="n">
-        <v>203.3156892245185</v>
+        <v>160.5848206311605</v>
       </c>
       <c r="P12" t="n">
-        <v>203.321939772361</v>
+        <v>203.3219397723607</v>
       </c>
       <c r="Q12" t="n">
         <v>136.1300824528302</v>
@@ -8933,7 +8933,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M14" t="n">
-        <v>290.1466336104414</v>
+        <v>290.1466336104413</v>
       </c>
       <c r="N14" t="n">
         <v>283.4008070189657</v>
@@ -9006,22 +9006,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K15" t="n">
-        <v>131.9825104815849</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L15" t="n">
-        <v>203.0450902472704</v>
+        <v>160.3142216539125</v>
       </c>
       <c r="M15" t="n">
-        <v>199.2893595226801</v>
+        <v>116.626698625586</v>
       </c>
       <c r="N15" t="n">
-        <v>181.2801078349635</v>
+        <v>184.6200133257551</v>
       </c>
       <c r="O15" t="n">
-        <v>120.6530283274244</v>
+        <v>203.3156892245184</v>
       </c>
       <c r="P15" t="n">
-        <v>203.321939772361</v>
+        <v>203.3219397723609</v>
       </c>
       <c r="Q15" t="n">
         <v>136.1300824528302</v>
@@ -9170,7 +9170,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M17" t="n">
-        <v>290.1466336104414</v>
+        <v>290.1466336104413</v>
       </c>
       <c r="N17" t="n">
         <v>283.4008070189657</v>
@@ -9246,19 +9246,19 @@
         <v>171.373473584151</v>
       </c>
       <c r="L18" t="n">
-        <v>160.3142216539126</v>
+        <v>203.0450902472703</v>
       </c>
       <c r="M18" t="n">
-        <v>199.2893595226801</v>
+        <v>199.2893595226799</v>
       </c>
       <c r="N18" t="n">
-        <v>184.6200133257552</v>
+        <v>101.9573524286611</v>
       </c>
       <c r="O18" t="n">
-        <v>203.3156892245185</v>
+        <v>160.5848206311607</v>
       </c>
       <c r="P18" t="n">
-        <v>120.6592788752669</v>
+        <v>203.3219397723609</v>
       </c>
       <c r="Q18" t="n">
         <v>136.1300824528302</v>
@@ -9407,7 +9407,7 @@
         <v>270.6444670286918</v>
       </c>
       <c r="M20" t="n">
-        <v>290.1466336104414</v>
+        <v>290.1466336104413</v>
       </c>
       <c r="N20" t="n">
         <v>283.4008070189657</v>
@@ -9480,22 +9480,22 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K21" t="n">
-        <v>131.9825104815849</v>
+        <v>171.373473584151</v>
       </c>
       <c r="L21" t="n">
-        <v>120.3824293501763</v>
+        <v>203.0450902472703</v>
       </c>
       <c r="M21" t="n">
-        <v>195.9494540318884</v>
+        <v>116.626698625586</v>
       </c>
       <c r="N21" t="n">
-        <v>184.6200133257552</v>
+        <v>141.8891447323973</v>
       </c>
       <c r="O21" t="n">
-        <v>203.3156892245185</v>
+        <v>203.3156892245184</v>
       </c>
       <c r="P21" t="n">
-        <v>203.321939772361</v>
+        <v>203.3219397723609</v>
       </c>
       <c r="Q21" t="n">
         <v>136.1300824528302</v>
@@ -9717,19 +9717,19 @@
         <v>81.70699090058493</v>
       </c>
       <c r="K24" t="n">
-        <v>171.373473584151</v>
+        <v>131.9825104815849</v>
       </c>
       <c r="L24" t="n">
         <v>203.0450902472703</v>
       </c>
       <c r="M24" t="n">
-        <v>156.5584909293221</v>
+        <v>199.2893595226799</v>
       </c>
       <c r="N24" t="n">
-        <v>101.9573524286611</v>
+        <v>181.2801078349634</v>
       </c>
       <c r="O24" t="n">
-        <v>203.3156892245184</v>
+        <v>120.6530283274244</v>
       </c>
       <c r="P24" t="n">
         <v>203.3219397723609</v>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>169.4344561747824</v>
+        <v>86.7717952776886</v>
       </c>
       <c r="C11" t="n">
-        <v>62.89005228103377</v>
+        <v>145.5527131781279</v>
       </c>
       <c r="D11" t="n">
-        <v>50.45671454208224</v>
+        <v>133.1193754391764</v>
       </c>
       <c r="E11" t="n">
         <v>166.8261278585852</v>
       </c>
       <c r="F11" t="n">
-        <v>198.5464654369625</v>
+        <v>115.8838045398687</v>
       </c>
       <c r="G11" t="n">
-        <v>131.5106423454655</v>
+        <v>141.3640315243994</v>
       </c>
       <c r="H11" t="n">
-        <v>87.19576473190847</v>
+        <v>142.2448436041344</v>
       </c>
       <c r="I11" t="n">
-        <v>35.89105811681803</v>
+        <v>35.89105811681805</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,25 +23306,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>22.58881163589406</v>
+        <v>22.58881163589405</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>17.76019284593454</v>
       </c>
       <c r="U11" t="n">
-        <v>45.49679044823577</v>
+        <v>45.4967904482358</v>
       </c>
       <c r="V11" t="n">
         <v>116.2269994061011</v>
       </c>
       <c r="W11" t="n">
-        <v>133.2436796227159</v>
+        <v>133.243679622716</v>
       </c>
       <c r="X11" t="n">
-        <v>155.1299300916552</v>
+        <v>72.4672691945614</v>
       </c>
       <c r="Y11" t="n">
-        <v>177.6327832153989</v>
+        <v>177.632783215399</v>
       </c>
     </row>
     <row r="12">
@@ -23470,13 +23470,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>1.340816169499591</v>
+        <v>1.340816169499904</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>2.995261989190283</v>
+        <v>2.995261989190595</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>169.4344561747823</v>
       </c>
       <c r="C14" t="n">
-        <v>62.89005228103372</v>
+        <v>145.5527131781278</v>
       </c>
       <c r="D14" t="n">
-        <v>50.45671454208218</v>
+        <v>50.45671454208224</v>
       </c>
       <c r="E14" t="n">
-        <v>166.8261278585852</v>
+        <v>166.8261278585851</v>
       </c>
       <c r="F14" t="n">
-        <v>198.5464654369625</v>
+        <v>198.5464654369624</v>
       </c>
       <c r="G14" t="n">
-        <v>131.5106423454654</v>
+        <v>214.1733032425595</v>
       </c>
       <c r="H14" t="n">
-        <v>142.2448436041343</v>
+        <v>92.02438352186788</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>35.89105811681792</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>17.76019284593445</v>
+        <v>17.7601928459344</v>
       </c>
       <c r="U14" t="n">
-        <v>45.49679044823571</v>
+        <v>45.49679044823566</v>
       </c>
       <c r="V14" t="n">
         <v>116.226999406101</v>
       </c>
       <c r="W14" t="n">
-        <v>133.2436796227159</v>
+        <v>50.58101872562185</v>
       </c>
       <c r="X14" t="n">
-        <v>155.1299300916551</v>
+        <v>72.46726919456108</v>
       </c>
       <c r="Y14" t="n">
-        <v>163.3033812499505</v>
+        <v>177.6327832153988</v>
       </c>
     </row>
     <row r="15">
@@ -23707,13 +23707,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>1.340816169499535</v>
+        <v>1.340816169499591</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>2.995261989190226</v>
+        <v>2.995261989190283</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1314615.094243598</v>
+        <v>1314615.094243599</v>
       </c>
     </row>
     <row r="7">
@@ -26314,7 +26314,7 @@
         <v>154338.0991558805</v>
       </c>
       <c r="C2" t="n">
-        <v>154338.0991558805</v>
+        <v>154338.0991558804</v>
       </c>
       <c r="D2" t="n">
         <v>154338.0991558805</v>
@@ -26323,7 +26323,7 @@
         <v>132998.2655785839</v>
       </c>
       <c r="F2" t="n">
-        <v>132998.2655785839</v>
+        <v>132998.265578584</v>
       </c>
       <c r="G2" t="n">
         <v>154650.7460502438</v>
@@ -26338,22 +26338,22 @@
         <v>154650.7460502439</v>
       </c>
       <c r="K2" t="n">
+        <v>154650.7460502438</v>
+      </c>
+      <c r="L2" t="n">
         <v>154650.746050244</v>
       </c>
-      <c r="L2" t="n">
-        <v>154650.7460502439</v>
-      </c>
       <c r="M2" t="n">
-        <v>154650.7460502438</v>
+        <v>154650.7460502437</v>
       </c>
       <c r="N2" t="n">
-        <v>154650.7460502439</v>
+        <v>154650.7460502437</v>
       </c>
       <c r="O2" t="n">
         <v>154650.7460502438</v>
       </c>
       <c r="P2" t="n">
-        <v>154650.7460502438</v>
+        <v>154650.7460502437</v>
       </c>
     </row>
     <row r="3">
@@ -26372,31 +26372,31 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>272100.1210438668</v>
+        <v>272100.1210438667</v>
       </c>
       <c r="F3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>1.13686837721616e-10</v>
       </c>
       <c r="G3" t="n">
         <v>105208.5138763724</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>161490.7661438377</v>
+        <v>161490.7661438376</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>105208.5138763725</v>
+        <v>105208.5138763723</v>
       </c>
       <c r="M3" t="n">
-        <v>18266.6854681785</v>
+        <v>18266.68546817857</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,7 +26424,7 @@
         <v>498984.6759847553</v>
       </c>
       <c r="E4" t="n">
-        <v>393609.1285253837</v>
+        <v>393609.1285253835</v>
       </c>
       <c r="F4" t="n">
         <v>393609.1285253837</v>
@@ -26442,7 +26442,7 @@
         <v>465554.6357675862</v>
       </c>
       <c r="K4" t="n">
-        <v>465554.6357675861</v>
+        <v>465554.6357675862</v>
       </c>
       <c r="L4" t="n">
         <v>465554.6357675862</v>
@@ -26476,28 +26476,28 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>24501.91760808066</v>
+        <v>24501.91760808065</v>
       </c>
       <c r="F5" t="n">
         <v>24501.91760808067</v>
       </c>
       <c r="G5" t="n">
-        <v>35557.88579942162</v>
+        <v>35557.88579942161</v>
       </c>
       <c r="H5" t="n">
         <v>35557.88579942162</v>
       </c>
       <c r="I5" t="n">
-        <v>35557.88579942161</v>
+        <v>35557.88579942162</v>
       </c>
       <c r="J5" t="n">
+        <v>47597.11518397227</v>
+      </c>
+      <c r="K5" t="n">
+        <v>47597.11518397227</v>
+      </c>
+      <c r="L5" t="n">
         <v>47597.11518397226</v>
-      </c>
-      <c r="K5" t="n">
-        <v>47597.11518397226</v>
-      </c>
-      <c r="L5" t="n">
-        <v>47597.11518397227</v>
       </c>
       <c r="M5" t="n">
         <v>44490.80287720932</v>
@@ -26506,7 +26506,7 @@
         <v>44490.80287720932</v>
       </c>
       <c r="O5" t="n">
-        <v>44490.80287720932</v>
+        <v>44490.80287720933</v>
       </c>
       <c r="P5" t="n">
         <v>44490.80287720932</v>
@@ -26519,43 +26519,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-378274.1768288748</v>
+        <v>-378278.6432130801</v>
       </c>
       <c r="C6" t="n">
-        <v>-378274.1768288749</v>
+        <v>-378278.6432130802</v>
       </c>
       <c r="D6" t="n">
-        <v>-378274.1768288749</v>
+        <v>-378278.64321308</v>
       </c>
       <c r="E6" t="n">
-        <v>-557212.9015987472</v>
+        <v>-557522.2227483422</v>
       </c>
       <c r="F6" t="n">
-        <v>-285112.7805548804</v>
+        <v>-285422.1017044756</v>
       </c>
       <c r="G6" t="n">
-        <v>-450255.07846744</v>
+        <v>-450255.0784674399</v>
       </c>
       <c r="H6" t="n">
-        <v>-345046.5645910676</v>
+        <v>-345046.5645910677</v>
       </c>
       <c r="I6" t="n">
         <v>-345046.5645910676</v>
       </c>
       <c r="J6" t="n">
-        <v>-519991.7710451523</v>
+        <v>-519991.7710451522</v>
       </c>
       <c r="K6" t="n">
-        <v>-358501.0049013144</v>
+        <v>-358501.0049013147</v>
       </c>
       <c r="L6" t="n">
-        <v>-463709.5187776872</v>
+        <v>-463709.5187776868</v>
       </c>
       <c r="M6" t="n">
-        <v>-373290.078161351</v>
+        <v>-373290.0781613512</v>
       </c>
       <c r="N6" t="n">
-        <v>-355023.3926931724</v>
+        <v>-355023.3926931727</v>
       </c>
       <c r="O6" t="n">
         <v>-420091.2617513557</v>
@@ -26695,7 +26695,7 @@
         <v>204.6527842030509</v>
       </c>
       <c r="F2" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="G2" t="n">
         <v>336.1634265485166</v>
@@ -26710,10 +26710,10 @@
         <v>212.8454786681946</v>
       </c>
       <c r="K2" t="n">
+        <v>212.8454786681946</v>
+      </c>
+      <c r="L2" t="n">
         <v>212.8454786681945</v>
-      </c>
-      <c r="L2" t="n">
-        <v>212.8454786681946</v>
       </c>
       <c r="M2" t="n">
         <v>235.6788355034177</v>
@@ -26725,7 +26725,7 @@
         <v>235.6788355034177</v>
       </c>
       <c r="P2" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
     </row>
     <row r="3">
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709382</v>
       </c>
       <c r="F4" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="G4" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="H4" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="I4" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="J4" t="n">
         <v>451.1897323592888</v>
@@ -26820,16 +26820,16 @@
         <v>451.1897323592888</v>
       </c>
       <c r="M4" t="n">
-        <v>368.5270714621947</v>
+        <v>368.5270714621949</v>
       </c>
       <c r="N4" t="n">
-        <v>368.5270714621947</v>
+        <v>368.5270714621948</v>
       </c>
       <c r="O4" t="n">
-        <v>368.5270714621947</v>
+        <v>368.5270714621948</v>
       </c>
       <c r="P4" t="n">
-        <v>368.5270714621947</v>
+        <v>368.5270714621948</v>
       </c>
     </row>
   </sheetData>
@@ -26917,28 +26917,28 @@
         <v>204.6527842030509</v>
       </c>
       <c r="F2" t="n">
+        <v>1.4210854715202e-13</v>
+      </c>
+      <c r="G2" t="n">
+        <v>131.5106423454655</v>
+      </c>
+      <c r="H2" t="n">
         <v>5.684341886080801e-14</v>
       </c>
-      <c r="G2" t="n">
-        <v>131.5106423454656</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0</v>
-      </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>81.33483632272896</v>
+        <v>81.3348363227289</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>131.5106423454656</v>
+        <v>131.5106423454654</v>
       </c>
       <c r="M2" t="n">
-        <v>22.83335683522313</v>
+        <v>22.83335683522321</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709382</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27154,22 +27154,22 @@
         <v>204.6527842030509</v>
       </c>
       <c r="K2" t="n">
+        <v>1.4210854715202e-13</v>
+      </c>
+      <c r="L2" t="n">
+        <v>131.5106423454655</v>
+      </c>
+      <c r="M2" t="n">
         <v>5.684341886080801e-14</v>
       </c>
-      <c r="L2" t="n">
-        <v>131.5106423454656</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0</v>
-      </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>81.33483632272896</v>
+        <v>81.3348363227289</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709382</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -28111,10 +28111,10 @@
         <v>204.6527842030509</v>
       </c>
       <c r="J11" t="n">
-        <v>156.4561963086026</v>
+        <v>141.508359695211</v>
       </c>
       <c r="K11" t="n">
-        <v>5.189869058379848</v>
+        <v>5.189869058379841</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,19 +28123,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>4.417430933068999</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>13.35405989412962</v>
+        <v>13.35405989412961</v>
       </c>
       <c r="Q11" t="n">
         <v>88.40663715938581</v>
       </c>
       <c r="R11" t="n">
-        <v>194.1223785227293</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="S11" t="n">
         <v>204.6527842030509</v>
@@ -28175,10 +28175,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E12" t="n">
-        <v>171.8275718397997</v>
+        <v>105.9994820473671</v>
       </c>
       <c r="F12" t="n">
-        <v>76.16077822283424</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
         <v>148.7381381529399</v>
@@ -28187,7 +28187,7 @@
         <v>125.6730735315877</v>
       </c>
       <c r="I12" t="n">
-        <v>107.1407760227504</v>
+        <v>24.47811512565656</v>
       </c>
       <c r="J12" t="n">
         <v>51.86424478979234</v>
@@ -28211,7 +28211,7 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.044035583042479</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R12" t="n">
         <v>134.3183216232903</v>
@@ -28232,7 +28232,7 @@
         <v>204.6527842030509</v>
       </c>
       <c r="X12" t="n">
-        <v>138.8246944106174</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="Y12" t="n">
         <v>204.6527842030509</v>
@@ -28251,10 +28251,10 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>145.1826502507107</v>
+        <v>204.6527842030509</v>
       </c>
       <c r="E13" t="n">
-        <v>193.3904245705096</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
         <v>138.9268822184467</v>
@@ -28263,25 +28263,25 @@
         <v>168.695353780268</v>
       </c>
       <c r="H13" t="n">
-        <v>204.6527842030509</v>
+        <v>165.7761987305484</v>
       </c>
       <c r="I13" t="n">
-        <v>204.6527842030509</v>
+        <v>164.6899393962033</v>
       </c>
       <c r="J13" t="n">
         <v>119.8563324981777</v>
       </c>
       <c r="K13" t="n">
-        <v>149.062802334617</v>
+        <v>66.40014143752288</v>
       </c>
       <c r="L13" t="n">
-        <v>31.34583955592036</v>
+        <v>114.0085004530142</v>
       </c>
       <c r="M13" t="n">
-        <v>24.36707598317781</v>
+        <v>90.67774013758326</v>
       </c>
       <c r="N13" t="n">
-        <v>15.69057404649868</v>
+        <v>98.3532349435925</v>
       </c>
       <c r="O13" t="n">
         <v>36.71262952723531</v>
@@ -28290,7 +28290,7 @@
         <v>57.82293582615034</v>
       </c>
       <c r="Q13" t="n">
-        <v>204.6527842030509</v>
+        <v>126.7630388368461</v>
       </c>
       <c r="R13" t="n">
         <v>203.1862066784475</v>
@@ -28324,37 +28324,37 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="C14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="D14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="E14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="F14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="G14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="H14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="I14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="J14" t="n">
         <v>75.75587581289102</v>
       </c>
       <c r="K14" t="n">
-        <v>5.189869058379848</v>
+        <v>5.189869058379841</v>
       </c>
       <c r="L14" t="n">
-        <v>33.56270548453566</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -28366,34 +28366,34 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>13.35405989412962</v>
+        <v>13.35405989412961</v>
       </c>
       <c r="Q14" t="n">
-        <v>135.5442521705617</v>
+        <v>158.5765519747752</v>
       </c>
       <c r="R14" t="n">
-        <v>194.1223785227293</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="S14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="T14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="U14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="V14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="W14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="X14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
     </row>
     <row r="15">
@@ -28412,10 +28412,10 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>105.9994820473657</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
-        <v>158.8234391199283</v>
+        <v>76.16077822283435</v>
       </c>
       <c r="G15" t="n">
         <v>148.7381381529399</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.044035583042479</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>134.3183216232903</v>
       </c>
       <c r="S15" t="n">
-        <v>108.8080213336824</v>
+        <v>191.4706822307765</v>
       </c>
       <c r="T15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="U15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="V15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="W15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="X15" t="n">
-        <v>204.652784203051</v>
+        <v>144.8687299936596</v>
       </c>
       <c r="Y15" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
     </row>
     <row r="16">
@@ -28485,40 +28485,40 @@
         <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>166.4571809719723</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="E16" t="n">
-        <v>141.676141212225</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="G16" t="n">
-        <v>168.695353780268</v>
+        <v>193.4703467155038</v>
       </c>
       <c r="H16" t="n">
         <v>165.7761987305484</v>
       </c>
       <c r="I16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="J16" t="n">
-        <v>123.0116249009812</v>
+        <v>119.8563324981777</v>
       </c>
       <c r="K16" t="n">
         <v>66.40014143752288</v>
       </c>
       <c r="L16" t="n">
-        <v>114.0085004530145</v>
+        <v>31.34583955592036</v>
       </c>
       <c r="M16" t="n">
-        <v>107.0297368802719</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N16" t="n">
-        <v>98.35323494359278</v>
+        <v>15.69057404649868</v>
       </c>
       <c r="O16" t="n">
         <v>36.71262952723531</v>
@@ -28533,25 +28533,25 @@
         <v>203.1862066784475</v>
       </c>
       <c r="S16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="T16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="U16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="V16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="W16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="X16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
       <c r="Y16" t="n">
-        <v>204.652784203051</v>
+        <v>204.6527842030511</v>
       </c>
     </row>
     <row r="17">
@@ -28588,28 +28588,28 @@
         <v>75.75587581289102</v>
       </c>
       <c r="K17" t="n">
-        <v>81.47275862102208</v>
+        <v>5.189869058379841</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>33.56270548453553</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>4.417430933069298</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>13.35405989412962</v>
+        <v>45.20803196594066</v>
       </c>
       <c r="Q17" t="n">
         <v>88.40663715938581</v>
       </c>
       <c r="R17" t="n">
-        <v>194.1223785227293</v>
+        <v>194.1223785227292</v>
       </c>
       <c r="S17" t="n">
         <v>227.241595838945</v>
@@ -28621,7 +28621,7 @@
         <v>250.1495746512867</v>
       </c>
       <c r="V17" t="n">
-        <v>320.879783609152</v>
+        <v>336.1634265485166</v>
       </c>
       <c r="W17" t="n">
         <v>336.1634265485166</v>
@@ -28646,16 +28646,16 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>76.50965417948456</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>86.01416740176786</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7381381529399</v>
+        <v>66.07547725584595</v>
       </c>
       <c r="H18" t="n">
         <v>125.6730735315877</v>
@@ -28685,7 +28685,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.044035583042479</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R18" t="n">
         <v>134.3183216232903</v>
@@ -28694,13 +28694,13 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T18" t="n">
-        <v>132.2821988942284</v>
+        <v>214.9448597913225</v>
       </c>
       <c r="U18" t="n">
         <v>237.2276440809881</v>
       </c>
       <c r="V18" t="n">
-        <v>157.9862600183081</v>
+        <v>157.9862600183083</v>
       </c>
       <c r="W18" t="n">
         <v>266.7045835770116</v>
@@ -28709,7 +28709,7 @@
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>140.7216252369315</v>
+        <v>150.5750144158653</v>
       </c>
     </row>
     <row r="19">
@@ -28752,7 +28752,7 @@
         <v>31.34583955592036</v>
       </c>
       <c r="M19" t="n">
-        <v>24.36707598317781</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N19" t="n">
         <v>15.69057404649868</v>
@@ -28825,7 +28825,7 @@
         <v>75.75587581289102</v>
       </c>
       <c r="K20" t="n">
-        <v>5.189869058379848</v>
+        <v>5.189869058379841</v>
       </c>
       <c r="L20" t="n">
         <v>0</v>
@@ -28840,22 +28840,22 @@
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>13.35405989412962</v>
+        <v>13.35405989412961</v>
       </c>
       <c r="Q20" t="n">
         <v>88.40663715938581</v>
       </c>
       <c r="R20" t="n">
-        <v>194.1223785227293</v>
+        <v>194.1223785227292</v>
       </c>
       <c r="S20" t="n">
-        <v>307.9419163346565</v>
+        <v>227.241595838945</v>
       </c>
       <c r="T20" t="n">
         <v>222.4129770489855</v>
       </c>
       <c r="U20" t="n">
-        <v>250.1495746512867</v>
+        <v>330.8498951469979</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -28877,7 +28877,7 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>94.08783350057163</v>
+        <v>94.08783350057175</v>
       </c>
       <c r="C21" t="n">
         <v>187.5181515243659</v>
@@ -28889,10 +28889,10 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F21" t="n">
-        <v>76.16077822283424</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>127.7931112245718</v>
+        <v>148.7381381529399</v>
       </c>
       <c r="H21" t="n">
         <v>125.6730735315877</v>
@@ -28922,7 +28922,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.044035583042479</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R21" t="n">
         <v>134.3183216232903</v>
@@ -28931,7 +28931,7 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T21" t="n">
-        <v>214.9448597913225</v>
+        <v>132.2821988942285</v>
       </c>
       <c r="U21" t="n">
         <v>237.2276440809881</v>
@@ -28943,10 +28943,10 @@
         <v>266.7045835770116</v>
       </c>
       <c r="X21" t="n">
-        <v>134.6502535423765</v>
+        <v>196.3678875111026</v>
       </c>
       <c r="Y21" t="n">
-        <v>223.3842861340256</v>
+        <v>140.7216252369316</v>
       </c>
     </row>
     <row r="22">
@@ -28989,7 +28989,7 @@
         <v>31.34583955592036</v>
       </c>
       <c r="M22" t="n">
-        <v>24.36707598317781</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N22" t="n">
         <v>15.69057404649868</v>
@@ -29062,7 +29062,7 @@
         <v>75.75587581289102</v>
       </c>
       <c r="K23" t="n">
-        <v>5.189869058379848</v>
+        <v>5.189869058379841</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
@@ -29077,22 +29077,22 @@
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>13.35405989412962</v>
+        <v>13.35405989412961</v>
       </c>
       <c r="Q23" t="n">
         <v>88.40663715938581</v>
       </c>
       <c r="R23" t="n">
-        <v>194.1223785227293</v>
+        <v>194.1223785227292</v>
       </c>
       <c r="S23" t="n">
         <v>227.241595838945</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4129770489855</v>
+        <v>287.829654605332</v>
       </c>
       <c r="U23" t="n">
-        <v>315.5662522076333</v>
+        <v>250.1495746512867</v>
       </c>
       <c r="V23" t="n">
         <v>336.1634265485166</v>
@@ -29120,13 +29120,13 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D24" t="n">
-        <v>76.50965417948458</v>
+        <v>76.50965417948456</v>
       </c>
       <c r="E24" t="n">
-        <v>171.8275718397997</v>
+        <v>99.01830012163931</v>
       </c>
       <c r="F24" t="n">
-        <v>76.16077822283438</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
         <v>148.7381381529399</v>
@@ -29138,7 +29138,7 @@
         <v>107.1407760227504</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,7 +29159,7 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R24" t="n">
         <v>134.3183216232903</v>
@@ -29168,7 +29168,7 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T24" t="n">
-        <v>132.2821988942286</v>
+        <v>214.9448597913225</v>
       </c>
       <c r="U24" t="n">
         <v>237.2276440809881</v>
@@ -29177,13 +29177,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W24" t="n">
-        <v>266.7045835770116</v>
+        <v>184.0419226799176</v>
       </c>
       <c r="X24" t="n">
-        <v>217.3129144394706</v>
+        <v>134.6502535423766</v>
       </c>
       <c r="Y24" t="n">
-        <v>208.4832947887001</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29226,7 +29226,7 @@
         <v>31.34583955592036</v>
       </c>
       <c r="M25" t="n">
-        <v>24.36707598317781</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N25" t="n">
         <v>15.69057404649868</v>
@@ -29296,7 +29296,7 @@
         <v>212.8454786681946</v>
       </c>
       <c r="J26" t="n">
-        <v>212.8454786681941</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="K26" t="n">
         <v>212.8454786681946</v>
@@ -29317,7 +29317,7 @@
         <v>212.8454786681946</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681937</v>
       </c>
       <c r="R26" t="n">
         <v>212.8454786681946</v>
@@ -29360,13 +29360,13 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F27" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.7381381529399</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>125.6730735315877</v>
@@ -29396,7 +29396,7 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.044035583042479</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R27" t="n">
         <v>134.3183216232903</v>
@@ -29405,22 +29405,22 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T27" t="n">
+        <v>0</v>
+      </c>
+      <c r="U27" t="n">
+        <v>0</v>
+      </c>
+      <c r="V27" t="n">
+        <v>152.4213378903849</v>
+      </c>
+      <c r="W27" t="n">
         <v>212.8454786681946</v>
       </c>
-      <c r="U27" t="n">
+      <c r="X27" t="n">
         <v>212.8454786681946</v>
       </c>
-      <c r="V27" t="n">
+      <c r="Y27" t="n">
         <v>212.8454786681946</v>
-      </c>
-      <c r="W27" t="n">
-        <v>0</v>
-      </c>
-      <c r="X27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>175.5107715772447</v>
       </c>
     </row>
     <row r="28">
@@ -29445,10 +29445,10 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
+        <v>168.695353780268</v>
+      </c>
+      <c r="H28" t="n">
         <v>212.8454786681946</v>
-      </c>
-      <c r="H28" t="n">
-        <v>165.7761987305484</v>
       </c>
       <c r="I28" t="n">
         <v>164.6899393962033</v>
@@ -29460,22 +29460,22 @@
         <v>66.40014143752288</v>
       </c>
       <c r="L28" t="n">
-        <v>48.07982809982262</v>
+        <v>31.34583955592036</v>
       </c>
       <c r="M28" t="n">
-        <v>24.36707598317781</v>
+        <v>128.2323187869709</v>
       </c>
       <c r="N28" t="n">
         <v>15.69057404649868</v>
       </c>
       <c r="O28" t="n">
-        <v>212.8454786681946</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P28" t="n">
         <v>57.82293582615034</v>
       </c>
       <c r="Q28" t="n">
-        <v>126.7630388368461</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="R28" t="n">
         <v>203.1862066784475</v>
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="C29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="D29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="E29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="F29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="G29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="H29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="I29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="J29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="K29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="L29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="M29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="N29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="O29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="P29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="R29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681938</v>
       </c>
       <c r="S29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="T29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="U29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="V29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="W29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="X29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="Y29" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
     </row>
     <row r="30">
@@ -29591,7 +29591,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C30" t="n">
-        <v>137.179311713545</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D30" t="n">
         <v>159.1723150765785</v>
@@ -29600,7 +29600,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
         <v>148.7381381529399</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.044035583042479</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R30" t="n">
         <v>134.3183216232903</v>
@@ -29642,22 +29642,22 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T30" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="U30" t="n">
-        <v>212.8454786681945</v>
+        <v>3.683199737444852</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="W30" t="n">
         <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>212.8454786681945</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
     </row>
     <row r="31">
@@ -29673,7 +29673,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D31" t="n">
-        <v>157.9112244105488</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E31" t="n">
         <v>141.676141212225</v>
@@ -29682,16 +29682,16 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.695353780268</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="H31" t="n">
         <v>165.7761987305484</v>
       </c>
       <c r="I31" t="n">
-        <v>212.8454786681945</v>
+        <v>164.6899393962033</v>
       </c>
       <c r="J31" t="n">
-        <v>119.8563324981777</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="K31" t="n">
         <v>66.40014143752288</v>
@@ -29700,13 +29700,13 @@
         <v>31.34583955592036</v>
       </c>
       <c r="M31" t="n">
-        <v>24.36707598317781</v>
+        <v>114.585495508275</v>
       </c>
       <c r="N31" t="n">
         <v>15.69057404649868</v>
       </c>
       <c r="O31" t="n">
-        <v>212.8454786681945</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P31" t="n">
         <v>57.82293582615034</v>
@@ -29715,28 +29715,28 @@
         <v>126.7630388368461</v>
       </c>
       <c r="R31" t="n">
-        <v>203.1862066784475</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="S31" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="T31" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="U31" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="V31" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="W31" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="X31" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
       <c r="Y31" t="n">
-        <v>212.8454786681945</v>
+        <v>212.8454786681946</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="C32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="D32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="E32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="F32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="G32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="H32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="I32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="J32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="K32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="L32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="M32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="N32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="O32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="P32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="R32" t="n">
-        <v>212.8454786681938</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="S32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="T32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y32" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="33">
@@ -29828,10 +29828,10 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C33" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D33" t="n">
-        <v>56.39981811663037</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E33" t="n">
         <v>171.8275718397997</v>
@@ -29843,13 +29843,13 @@
         <v>148.7381381529399</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>125.6730735315877</v>
       </c>
       <c r="I33" t="n">
         <v>107.1407760227504</v>
       </c>
       <c r="J33" t="n">
-        <v>51.86424478979234</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,31 +29870,31 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R33" t="n">
         <v>134.3183216232903</v>
       </c>
       <c r="S33" t="n">
-        <v>191.4706822307765</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>212.8454786681946</v>
+        <v>34.17264808981949</v>
       </c>
       <c r="U33" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V33" t="n">
-        <v>0</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W33" t="n">
-        <v>212.8454786681946</v>
+        <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y33" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="34">
@@ -29913,22 +29913,22 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>212.8454786681946</v>
+        <v>193.398293455079</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.695353780268</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="H34" t="n">
         <v>165.7761987305484</v>
       </c>
       <c r="I34" t="n">
-        <v>164.6899393962033</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="J34" t="n">
-        <v>119.8563324981777</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="K34" t="n">
         <v>66.40014143752288</v>
@@ -29937,7 +29937,7 @@
         <v>31.34583955592036</v>
       </c>
       <c r="M34" t="n">
-        <v>24.36707598317781</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N34" t="n">
         <v>15.69057404649868</v>
@@ -29946,34 +29946,34 @@
         <v>36.71262952723531</v>
       </c>
       <c r="P34" t="n">
-        <v>212.8454786681946</v>
+        <v>57.82293582615034</v>
       </c>
       <c r="Q34" t="n">
-        <v>127.9288491218729</v>
+        <v>126.7630388368461</v>
       </c>
       <c r="R34" t="n">
-        <v>212.8454786681946</v>
+        <v>203.1862066784475</v>
       </c>
       <c r="S34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="T34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="U34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="V34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="W34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="X34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
       <c r="Y34" t="n">
-        <v>212.8454786681946</v>
+        <v>212.8454786681945</v>
       </c>
     </row>
     <row r="35">
@@ -30007,19 +30007,19 @@
         <v>235.6788355034177</v>
       </c>
       <c r="J35" t="n">
+        <v>75.75587581289102</v>
+      </c>
+      <c r="K35" t="n">
         <v>235.6788355034177</v>
-      </c>
-      <c r="K35" t="n">
-        <v>5.189869058379848</v>
       </c>
       <c r="L35" t="n">
         <v>235.6788355034177</v>
       </c>
       <c r="M35" t="n">
-        <v>72.19181101342124</v>
+        <v>224.0387813078966</v>
       </c>
       <c r="N35" t="n">
-        <v>235.6788355034177</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>235.6788355034177</v>
@@ -30037,7 +30037,7 @@
         <v>235.6788355034177</v>
       </c>
       <c r="T35" t="n">
-        <v>222.4129770489855</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="U35" t="n">
         <v>235.6788355034177</v>
@@ -30062,31 +30062,31 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C36" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D36" t="n">
-        <v>159.1723150765785</v>
+        <v>0</v>
       </c>
       <c r="E36" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
         <v>148.7381381529399</v>
       </c>
       <c r="H36" t="n">
-        <v>125.6730735315877</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>107.1407760227504</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,7 +30107,7 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R36" t="n">
         <v>134.3183216232903</v>
@@ -30116,19 +30116,19 @@
         <v>191.4706822307765</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>214.9448597913225</v>
       </c>
       <c r="U36" t="n">
+        <v>0</v>
+      </c>
+      <c r="V36" t="n">
         <v>235.6788355034177</v>
-      </c>
-      <c r="V36" t="n">
-        <v>164.2093980939309</v>
       </c>
       <c r="W36" t="n">
         <v>235.6788355034177</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>194.1287018156773</v>
       </c>
       <c r="Y36" t="n">
         <v>223.3842861340256</v>
@@ -30174,16 +30174,16 @@
         <v>31.34583955592036</v>
       </c>
       <c r="M37" t="n">
-        <v>24.36707598317781</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N37" t="n">
         <v>15.69057404649868</v>
       </c>
       <c r="O37" t="n">
-        <v>156.1284820251199</v>
+        <v>36.71262952723531</v>
       </c>
       <c r="P37" t="n">
-        <v>57.82293582615034</v>
+        <v>177.2387883240351</v>
       </c>
       <c r="Q37" t="n">
         <v>126.7630388368461</v>
@@ -30250,19 +30250,19 @@
         <v>235.6788355034177</v>
       </c>
       <c r="L38" t="n">
+        <v>165.7883172311874</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>235.6788355034177</v>
       </c>
-      <c r="M38" t="n">
+      <c r="P38" t="n">
         <v>235.6788355034177</v>
-      </c>
-      <c r="N38" t="n">
-        <v>139.1683988826249</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>13.35405989412962</v>
       </c>
       <c r="Q38" t="n">
         <v>235.6788355034177</v>
@@ -30274,7 +30274,7 @@
         <v>235.6788355034177</v>
       </c>
       <c r="T38" t="n">
-        <v>235.6788355034177</v>
+        <v>222.4129770489855</v>
       </c>
       <c r="U38" t="n">
         <v>235.6788355034177</v>
@@ -30302,7 +30302,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30311,7 +30311,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7381381529399</v>
@@ -30344,19 +30344,19 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R39" t="n">
-        <v>134.3183216232903</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>88.87097574359255</v>
+        <v>7.793084036712287</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9448597913225</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="V39" t="n">
         <v>235.6788355034177</v>
@@ -30365,7 +30365,7 @@
         <v>235.6788355034177</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
         <v>223.3842861340256</v>
@@ -30408,13 +30408,13 @@
         <v>66.40014143752288</v>
       </c>
       <c r="L40" t="n">
-        <v>150.7616920538049</v>
+        <v>31.34583955592036</v>
       </c>
       <c r="M40" t="n">
-        <v>24.36707598317781</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N40" t="n">
-        <v>15.69057404649868</v>
+        <v>135.1064265443834</v>
       </c>
       <c r="O40" t="n">
         <v>36.71262952723531</v>
@@ -30481,16 +30481,16 @@
         <v>235.6788355034177</v>
       </c>
       <c r="J41" t="n">
-        <v>75.75587581289102</v>
+        <v>133.9785298242455</v>
       </c>
       <c r="K41" t="n">
-        <v>235.6788355034177</v>
+        <v>5.189869058379841</v>
       </c>
       <c r="L41" t="n">
         <v>235.6788355034177</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="N41" t="n">
         <v>235.6788355034177</v>
@@ -30499,7 +30499,7 @@
         <v>235.6788355034177</v>
       </c>
       <c r="P41" t="n">
-        <v>90.0324414182956</v>
+        <v>13.35405989412961</v>
       </c>
       <c r="Q41" t="n">
         <v>235.6788355034177</v>
@@ -30511,7 +30511,7 @@
         <v>235.6788355034177</v>
       </c>
       <c r="T41" t="n">
-        <v>222.4129770489855</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="U41" t="n">
         <v>235.6788355034177</v>
@@ -30545,19 +30545,19 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.7381381529399</v>
+        <v>0</v>
       </c>
       <c r="H42" t="n">
         <v>125.6730735315877</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>107.1407760227504</v>
       </c>
       <c r="J42" t="n">
         <v>51.86424478979234</v>
@@ -30581,7 +30581,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.044035583042479</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R42" t="n">
         <v>134.3183216232903</v>
@@ -30593,13 +30593,13 @@
         <v>214.9448597913225</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>235.6788355034177</v>
       </c>
       <c r="V42" t="n">
-        <v>217.3852392607082</v>
+        <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>235.6788355034177</v>
+        <v>87.15502955109807</v>
       </c>
       <c r="X42" t="n">
         <v>217.3129144394706</v>
@@ -30633,7 +30633,7 @@
         <v>168.695353780268</v>
       </c>
       <c r="H43" t="n">
-        <v>235.6788355034177</v>
+        <v>165.7761987305484</v>
       </c>
       <c r="I43" t="n">
         <v>164.6899393962033</v>
@@ -30642,16 +30642,16 @@
         <v>119.8563324981777</v>
       </c>
       <c r="K43" t="n">
-        <v>115.9133571625381</v>
+        <v>66.40014143752288</v>
       </c>
       <c r="L43" t="n">
         <v>31.34583955592036</v>
       </c>
       <c r="M43" t="n">
-        <v>24.36707598317781</v>
+        <v>24.3670759831778</v>
       </c>
       <c r="N43" t="n">
-        <v>15.69057404649868</v>
+        <v>135.1064265443833</v>
       </c>
       <c r="O43" t="n">
         <v>36.71262952723531</v>
@@ -30694,76 +30694,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="C44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="D44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="E44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="F44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="G44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="H44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="I44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="J44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="K44" t="n">
-        <v>5.189869058379848</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="M44" t="n">
-        <v>210.5921448179684</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="N44" t="n">
-        <v>235.6788355034177</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>235.6788355034177</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="Q44" t="n">
-        <v>235.6788355034177</v>
+        <v>165.788317231188</v>
       </c>
       <c r="R44" t="n">
-        <v>194.1223785227293</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="S44" t="n">
-        <v>227.241595838945</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="T44" t="n">
         <v>222.4129770489855</v>
       </c>
       <c r="U44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="Y44" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
     </row>
     <row r="45">
@@ -30773,22 +30773,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C45" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D45" t="n">
-        <v>159.1723150765785</v>
+        <v>72.06396507047066</v>
       </c>
       <c r="E45" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>148.7381381529399</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>125.6730735315877</v>
@@ -30797,7 +30797,7 @@
         <v>107.1407760227504</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>51.86424478979234</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,28 +30818,28 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.044035583042476</v>
       </c>
       <c r="R45" t="n">
-        <v>134.3183216232903</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
-        <v>191.4706822307765</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
         <v>214.9448597913225</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V45" t="n">
-        <v>202.8704290837635</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W45" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y45" t="n">
         <v>223.3842861340256</v>
@@ -30852,7 +30852,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.6788355034177</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C46" t="n">
         <v>166.4571809719723</v>
@@ -30885,7 +30885,7 @@
         <v>31.34583955592036</v>
       </c>
       <c r="M46" t="n">
-        <v>71.96163354743754</v>
+        <v>143.7829284810626</v>
       </c>
       <c r="N46" t="n">
         <v>15.69057404649868</v>
@@ -30909,16 +30909,16 @@
         <v>223.7383953681803</v>
       </c>
       <c r="U46" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="V46" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="W46" t="n">
-        <v>235.6788355034177</v>
+        <v>235.6788355034176</v>
       </c>
       <c r="X46" t="n">
-        <v>235.6788355034177</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
         <v>217.1412728141684</v>
@@ -31750,7 +31750,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H11" t="n">
         <v>4.289083111583158</v>
@@ -31759,31 +31759,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J11" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K11" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L11" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M11" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N11" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O11" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P11" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q11" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R11" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S11" t="n">
         <v>9.543510939114002</v>
@@ -31792,7 +31792,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U11" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I12" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J12" t="n">
         <v>21.17066884295609</v>
@@ -31847,16 +31847,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M12" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N12" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O12" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P12" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q12" t="n">
         <v>28.60364634907358</v>
@@ -31865,10 +31865,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S12" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T12" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U12" t="n">
         <v>0.01474212119420368</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H13" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I13" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J13" t="n">
         <v>13.28179728076079</v>
@@ -31929,7 +31929,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N13" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O13" t="n">
         <v>26.55334757892103</v>
@@ -31944,10 +31944,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S13" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T13" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U13" t="n">
         <v>0.01024698260056125</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H14" t="n">
         <v>4.289083111583158</v>
@@ -31996,31 +31996,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J14" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K14" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L14" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M14" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N14" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O14" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P14" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q14" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R14" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S14" t="n">
         <v>9.543510939114002</v>
@@ -32029,7 +32029,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U14" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,7 +32072,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I15" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J15" t="n">
         <v>21.17066884295609</v>
@@ -32084,16 +32084,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M15" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N15" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O15" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P15" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q15" t="n">
         <v>28.60364634907358</v>
@@ -32102,10 +32102,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S15" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T15" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U15" t="n">
         <v>0.01474212119420368</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H16" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I16" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J16" t="n">
         <v>13.28179728076079</v>
@@ -32166,7 +32166,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N16" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O16" t="n">
         <v>26.55334757892103</v>
@@ -32181,10 +32181,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S16" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T16" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U16" t="n">
         <v>0.01024698260056125</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H17" t="n">
         <v>4.289083111583158</v>
@@ -32233,31 +32233,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J17" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K17" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L17" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M17" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N17" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O17" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P17" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q17" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R17" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S17" t="n">
         <v>9.543510939114002</v>
@@ -32266,7 +32266,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U17" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32309,7 +32309,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I18" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J18" t="n">
         <v>21.17066884295609</v>
@@ -32321,16 +32321,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M18" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N18" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O18" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P18" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q18" t="n">
         <v>28.60364634907358</v>
@@ -32339,10 +32339,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S18" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T18" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U18" t="n">
         <v>0.01474212119420368</v>
@@ -32382,13 +32382,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H19" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I19" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J19" t="n">
         <v>13.28179728076079</v>
@@ -32403,7 +32403,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N19" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O19" t="n">
         <v>26.55334757892103</v>
@@ -32418,10 +32418,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S19" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T19" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U19" t="n">
         <v>0.01024698260056125</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H20" t="n">
         <v>4.289083111583158</v>
@@ -32470,31 +32470,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J20" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K20" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L20" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M20" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N20" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O20" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P20" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q20" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R20" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S20" t="n">
         <v>9.543510939114002</v>
@@ -32503,7 +32503,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U20" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32546,7 +32546,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I21" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J21" t="n">
         <v>21.17066884295609</v>
@@ -32558,16 +32558,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M21" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N21" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O21" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P21" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q21" t="n">
         <v>28.60364634907358</v>
@@ -32576,10 +32576,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S21" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T21" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U21" t="n">
         <v>0.01474212119420368</v>
@@ -32619,13 +32619,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H22" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I22" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J22" t="n">
         <v>13.28179728076079</v>
@@ -32640,7 +32640,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N22" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O22" t="n">
         <v>26.55334757892103</v>
@@ -32655,10 +32655,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S22" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T22" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U22" t="n">
         <v>0.01024698260056125</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H23" t="n">
         <v>4.289083111583158</v>
@@ -32707,31 +32707,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J23" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K23" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L23" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M23" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N23" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O23" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P23" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q23" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R23" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S23" t="n">
         <v>9.543510939114002</v>
@@ -32740,7 +32740,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U23" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,7 +32783,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I24" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J24" t="n">
         <v>21.17066884295609</v>
@@ -32795,16 +32795,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M24" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N24" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O24" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P24" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q24" t="n">
         <v>28.60364634907358</v>
@@ -32813,10 +32813,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S24" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T24" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U24" t="n">
         <v>0.01474212119420368</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H25" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I25" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J25" t="n">
         <v>13.28179728076079</v>
@@ -32877,7 +32877,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N25" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O25" t="n">
         <v>26.55334757892103</v>
@@ -32892,10 +32892,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S25" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T25" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U25" t="n">
         <v>0.01024698260056125</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H26" t="n">
         <v>4.289083111583158</v>
@@ -32944,31 +32944,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J26" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K26" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L26" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M26" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N26" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O26" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P26" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q26" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R26" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S26" t="n">
         <v>9.543510939114002</v>
@@ -32977,7 +32977,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U26" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I27" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J27" t="n">
         <v>21.17066884295609</v>
@@ -33032,16 +33032,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M27" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N27" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O27" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P27" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q27" t="n">
         <v>28.60364634907358</v>
@@ -33050,10 +33050,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S27" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T27" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U27" t="n">
         <v>0.01474212119420368</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H28" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I28" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J28" t="n">
         <v>13.28179728076079</v>
@@ -33114,7 +33114,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N28" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O28" t="n">
         <v>26.55334757892103</v>
@@ -33129,10 +33129,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S28" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T28" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U28" t="n">
         <v>0.01024698260056125</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H29" t="n">
         <v>4.289083111583158</v>
@@ -33181,31 +33181,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J29" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K29" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L29" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M29" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N29" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O29" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P29" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q29" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R29" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S29" t="n">
         <v>9.543510939114002</v>
@@ -33214,7 +33214,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U29" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33257,7 +33257,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I30" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J30" t="n">
         <v>21.17066884295609</v>
@@ -33269,16 +33269,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M30" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N30" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O30" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P30" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q30" t="n">
         <v>28.60364634907358</v>
@@ -33287,10 +33287,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S30" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T30" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U30" t="n">
         <v>0.01474212119420368</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H31" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I31" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J31" t="n">
         <v>13.28179728076079</v>
@@ -33351,7 +33351,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N31" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O31" t="n">
         <v>26.55334757892103</v>
@@ -33366,10 +33366,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S31" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T31" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U31" t="n">
         <v>0.01024698260056125</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H32" t="n">
         <v>4.289083111583158</v>
@@ -33418,31 +33418,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J32" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K32" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L32" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M32" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N32" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O32" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P32" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q32" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R32" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S32" t="n">
         <v>9.543510939114002</v>
@@ -33451,7 +33451,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U32" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33494,7 +33494,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I33" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J33" t="n">
         <v>21.17066884295609</v>
@@ -33506,16 +33506,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M33" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N33" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O33" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P33" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q33" t="n">
         <v>28.60364634907358</v>
@@ -33524,10 +33524,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S33" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T33" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U33" t="n">
         <v>0.01474212119420368</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H34" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I34" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J34" t="n">
         <v>13.28179728076079</v>
@@ -33588,7 +33588,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N34" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O34" t="n">
         <v>26.55334757892103</v>
@@ -33603,10 +33603,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S34" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T34" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U34" t="n">
         <v>0.01024698260056125</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H35" t="n">
         <v>4.289083111583158</v>
@@ -33655,31 +33655,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J35" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K35" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L35" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M35" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N35" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O35" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P35" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q35" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R35" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S35" t="n">
         <v>9.543510939114002</v>
@@ -33688,7 +33688,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U35" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33731,7 +33731,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I36" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J36" t="n">
         <v>21.17066884295609</v>
@@ -33743,16 +33743,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M36" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N36" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O36" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P36" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q36" t="n">
         <v>28.60364634907358</v>
@@ -33761,10 +33761,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S36" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T36" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U36" t="n">
         <v>0.01474212119420368</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H37" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I37" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J37" t="n">
         <v>13.28179728076079</v>
@@ -33825,7 +33825,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N37" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O37" t="n">
         <v>26.55334757892103</v>
@@ -33840,10 +33840,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S37" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T37" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U37" t="n">
         <v>0.01024698260056125</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H38" t="n">
         <v>4.289083111583158</v>
@@ -33892,31 +33892,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J38" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K38" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L38" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M38" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N38" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O38" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P38" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q38" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R38" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S38" t="n">
         <v>9.543510939114002</v>
@@ -33925,7 +33925,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U38" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,7 +33968,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I39" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J39" t="n">
         <v>21.17066884295609</v>
@@ -33980,16 +33980,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M39" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N39" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O39" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P39" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q39" t="n">
         <v>28.60364634907358</v>
@@ -33998,10 +33998,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S39" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T39" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U39" t="n">
         <v>0.01474212119420368</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H40" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I40" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J40" t="n">
         <v>13.28179728076079</v>
@@ -34062,7 +34062,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N40" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O40" t="n">
         <v>26.55334757892103</v>
@@ -34077,10 +34077,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S40" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T40" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U40" t="n">
         <v>0.01024698260056125</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H41" t="n">
         <v>4.289083111583158</v>
@@ -34129,31 +34129,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J41" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K41" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L41" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M41" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N41" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O41" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P41" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q41" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R41" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S41" t="n">
         <v>9.543510939114002</v>
@@ -34162,7 +34162,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U41" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,7 +34205,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I42" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J42" t="n">
         <v>21.17066884295609</v>
@@ -34217,16 +34217,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M42" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N42" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O42" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P42" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q42" t="n">
         <v>28.60364634907358</v>
@@ -34235,10 +34235,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S42" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T42" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U42" t="n">
         <v>0.01474212119420368</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H43" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I43" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J43" t="n">
         <v>13.28179728076079</v>
@@ -34299,7 +34299,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N43" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O43" t="n">
         <v>26.55334757892103</v>
@@ -34314,10 +34314,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S43" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T43" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U43" t="n">
         <v>0.01024698260056125</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4188046490011625</v>
+        <v>0.4188046490011626</v>
       </c>
       <c r="H44" t="n">
         <v>4.289083111583158</v>
@@ -34366,31 +34366,31 @@
         <v>16.14596623061734</v>
       </c>
       <c r="J44" t="n">
-        <v>35.54552107816245</v>
+        <v>35.54552107816246</v>
       </c>
       <c r="K44" t="n">
-        <v>53.27352187038168</v>
+        <v>53.27352187038169</v>
       </c>
       <c r="L44" t="n">
-        <v>66.09051464725101</v>
+        <v>66.09051464725103</v>
       </c>
       <c r="M44" t="n">
-        <v>73.53843182392544</v>
+        <v>73.53843182392545</v>
       </c>
       <c r="N44" t="n">
-        <v>74.7283605329</v>
+        <v>74.72836053290001</v>
       </c>
       <c r="O44" t="n">
-        <v>70.56387180439468</v>
+        <v>70.56387180439469</v>
       </c>
       <c r="P44" t="n">
         <v>60.22463203217848</v>
       </c>
       <c r="Q44" t="n">
-        <v>45.22619053982432</v>
+        <v>45.22619053982433</v>
       </c>
       <c r="R44" t="n">
-        <v>26.3077375328193</v>
+        <v>26.30773753281931</v>
       </c>
       <c r="S44" t="n">
         <v>9.543510939114002</v>
@@ -34399,7 +34399,7 @@
         <v>1.83331735100259</v>
       </c>
       <c r="U44" t="n">
-        <v>0.033504371920093</v>
+        <v>0.03350437192009301</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,7 +34442,7 @@
         <v>2.164143391309099</v>
       </c>
       <c r="I45" t="n">
-        <v>7.715043424966589</v>
+        <v>7.71504342496659</v>
       </c>
       <c r="J45" t="n">
         <v>21.17066884295609</v>
@@ -34454,16 +34454,16 @@
         <v>48.65391398127019</v>
       </c>
       <c r="M45" t="n">
-        <v>56.77682275927639</v>
+        <v>56.7768227592764</v>
       </c>
       <c r="N45" t="n">
-        <v>58.27953631300556</v>
+        <v>58.27953631300557</v>
       </c>
       <c r="O45" t="n">
-        <v>53.31438989479776</v>
+        <v>53.31438989479777</v>
       </c>
       <c r="P45" t="n">
-        <v>42.78949817021596</v>
+        <v>42.78949817021597</v>
       </c>
       <c r="Q45" t="n">
         <v>28.60364634907358</v>
@@ -34472,10 +34472,10 @@
         <v>13.91263117500982</v>
       </c>
       <c r="S45" t="n">
-        <v>4.1621922171635</v>
+        <v>4.162192217163501</v>
       </c>
       <c r="T45" t="n">
-        <v>0.9032006251648779</v>
+        <v>0.903200625164878</v>
       </c>
       <c r="U45" t="n">
         <v>0.01474212119420368</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.187861347676956</v>
+        <v>0.1878613476769561</v>
       </c>
       <c r="H46" t="n">
         <v>1.670258163891483</v>
       </c>
       <c r="I46" t="n">
-        <v>5.649503073776097</v>
+        <v>5.649503073776098</v>
       </c>
       <c r="J46" t="n">
         <v>13.28179728076079</v>
@@ -34536,7 +34536,7 @@
         <v>29.44812016357957</v>
       </c>
       <c r="N46" t="n">
-        <v>28.74790968587457</v>
+        <v>28.74790968587458</v>
       </c>
       <c r="O46" t="n">
         <v>26.55334757892103</v>
@@ -34551,10 +34551,10 @@
         <v>8.446929323729313</v>
       </c>
       <c r="S46" t="n">
-        <v>3.273910940879314</v>
+        <v>3.273910940879315</v>
       </c>
       <c r="T46" t="n">
-        <v>0.8026803037106301</v>
+        <v>0.8026803037106303</v>
       </c>
       <c r="U46" t="n">
         <v>0.01024698260056125</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>80.70032049571154</v>
+        <v>65.75248388231999</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>49.09995541255844</v>
+        <v>49.09995541255846</v>
       </c>
       <c r="M11" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709382</v>
       </c>
       <c r="N11" t="n">
-        <v>78.2452299640248</v>
+        <v>82.66266089709382</v>
       </c>
       <c r="O11" t="n">
-        <v>36.60257132819585</v>
+        <v>36.60257132819586</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -35431,7 +35431,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>10.53040568032167</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>39.39096310256611</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>82.66266089709382</v>
       </c>
       <c r="M12" t="n">
-        <v>82.6626608970941</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>79.32275540630242</v>
+        <v>82.66266089709382</v>
       </c>
       <c r="O12" t="n">
-        <v>82.6626608970941</v>
+        <v>39.93179230373605</v>
       </c>
       <c r="P12" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709382</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35547,10 +35547,10 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>59.47013395234021</v>
       </c>
       <c r="E13" t="n">
-        <v>51.7142833582846</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -35559,25 +35559,25 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>38.87658547250255</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>39.96284480684762</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>82.6626608970941</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>82.66266089709382</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>66.31066415440546</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>82.66266089709382</v>
       </c>
       <c r="O13" t="n">
         <v>0</v>
@@ -35586,7 +35586,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>77.88974536620489</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>82.6626608970941</v>
+        <v>49.09995541255846</v>
       </c>
       <c r="M14" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="N14" t="n">
-        <v>78.2452299640248</v>
+        <v>78.24522996402482</v>
       </c>
       <c r="O14" t="n">
-        <v>36.60257132819585</v>
+        <v>36.60257132819586</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>47.13761501117589</v>
+        <v>70.16991481538938</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>10.53040568032181</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35726,22 +35726,22 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>39.39096310256611</v>
       </c>
       <c r="L15" t="n">
-        <v>82.6626608970941</v>
+        <v>39.93179230373621</v>
       </c>
       <c r="M15" t="n">
-        <v>82.6626608970941</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>79.32275540630242</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="P15" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35781,40 +35781,40 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>38.19560323107871</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>59.47013395234035</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>62.97664299082606</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>65.72590198460441</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>24.77499293523577</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>39.96284480684768</v>
+        <v>39.96284480684773</v>
       </c>
       <c r="J16" t="n">
-        <v>3.155292402803505</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>82.6626608970941</v>
+        <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>82.6626608970941</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
-        <v>82.6626608970941</v>
+        <v>0</v>
       </c>
       <c r="O16" t="n">
         <v>0</v>
@@ -35884,22 +35884,22 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>76.28288956264223</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>49.09995541255844</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="M17" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="N17" t="n">
-        <v>82.6626608970941</v>
+        <v>78.24522996402482</v>
       </c>
       <c r="O17" t="n">
-        <v>36.60257132819585</v>
+        <v>36.60257132819586</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>31.85397207181105</v>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -35917,7 +35917,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>15.28364293936454</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -35966,19 +35966,19 @@
         <v>39.39096310256611</v>
       </c>
       <c r="L18" t="n">
-        <v>39.93179230373631</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="M18" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="N18" t="n">
-        <v>82.6626608970941</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>82.6626608970941</v>
+        <v>39.93179230373622</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,16 +36124,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>49.09995541255844</v>
+        <v>49.09995541255846</v>
       </c>
       <c r="M20" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="N20" t="n">
-        <v>78.2452299640248</v>
+        <v>78.24522996402482</v>
       </c>
       <c r="O20" t="n">
-        <v>36.60257132819585</v>
+        <v>36.60257132819586</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -36145,13 +36145,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>80.70032049571151</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>80.70032049571117</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -36200,22 +36200,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>39.39096310256611</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="M21" t="n">
-        <v>79.32275540630242</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>82.6626608970941</v>
+        <v>39.93179230373621</v>
       </c>
       <c r="O21" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="P21" t="n">
-        <v>82.6626608970941</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36361,16 +36361,16 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>49.09995541255844</v>
+        <v>49.09995541255846</v>
       </c>
       <c r="M23" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="N23" t="n">
-        <v>78.2452299640248</v>
+        <v>78.24522996402482</v>
       </c>
       <c r="O23" t="n">
-        <v>36.60257132819585</v>
+        <v>36.60257132819586</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -36385,13 +36385,13 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>65.41667755634656</v>
       </c>
       <c r="U23" t="n">
-        <v>65.41667755634656</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>15.28364293936454</v>
+        <v>15.2836429393646</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -36437,22 +36437,22 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>39.39096310256611</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="M24" t="n">
-        <v>39.93179230373618</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>79.32275540630231</v>
       </c>
       <c r="O24" t="n">
-        <v>82.66266089709396</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>82.66266089709396</v>
+        <v>82.66266089709399</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>137.0896028553031</v>
+        <v>137.0896028553036</v>
       </c>
       <c r="K26" t="n">
         <v>207.6556096098147</v>
@@ -36601,22 +36601,22 @@
         <v>261.945434080753</v>
       </c>
       <c r="M26" t="n">
-        <v>296.6462756582027</v>
+        <v>296.6462756582028</v>
       </c>
       <c r="N26" t="n">
         <v>291.0907086322194</v>
       </c>
       <c r="O26" t="n">
-        <v>249.4480499963904</v>
+        <v>249.4480499963905</v>
       </c>
       <c r="P26" t="n">
         <v>199.491418774065</v>
       </c>
       <c r="Q26" t="n">
-        <v>124.4388415088088</v>
+        <v>124.4388415088079</v>
       </c>
       <c r="R26" t="n">
-        <v>18.72310014546532</v>
+        <v>18.72310014546536</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36689,7 +36689,7 @@
         <v>134.5697545638963</v>
       </c>
       <c r="P27" t="n">
-        <v>85.70459520341235</v>
+        <v>85.70459520341237</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36741,10 +36741,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.15012488792657</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>47.06927993764621</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -36756,22 +36756,22 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>16.73398854390226</v>
+        <v>0</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>103.8652428037932</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>176.1328491409593</v>
+        <v>0</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>0</v>
+        <v>86.08243983134855</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,7 +36829,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>137.0896028553035</v>
+        <v>137.0896028553036</v>
       </c>
       <c r="K29" t="n">
         <v>207.6556096098147</v>
@@ -36838,22 +36838,22 @@
         <v>261.945434080753</v>
       </c>
       <c r="M29" t="n">
-        <v>296.6462756582027</v>
+        <v>296.6462756582028</v>
       </c>
       <c r="N29" t="n">
-        <v>291.0907086322193</v>
+        <v>291.0907086322194</v>
       </c>
       <c r="O29" t="n">
-        <v>249.4480499963904</v>
+        <v>249.4480499963905</v>
       </c>
       <c r="P29" t="n">
-        <v>199.4914187740649</v>
+        <v>199.491418774065</v>
       </c>
       <c r="Q29" t="n">
-        <v>124.4388415088087</v>
+        <v>124.4388415088088</v>
       </c>
       <c r="R29" t="n">
-        <v>18.72310014546527</v>
+        <v>18.72310014546454</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36926,7 +36926,7 @@
         <v>134.5697545638963</v>
       </c>
       <c r="P30" t="n">
-        <v>85.70459520341235</v>
+        <v>85.70459520341237</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36969,7 +36969,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>12.72857415983809</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -36978,16 +36978,16 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>44.15012488792659</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>48.15553927199119</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>92.98914617001688</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -36996,13 +36996,13 @@
         <v>0</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>90.21841952509725</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>176.1328491409592</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -37011,7 +37011,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>9.659271989747145</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>137.0896028553036</v>
+        <v>137.0896028553035</v>
       </c>
       <c r="K32" t="n">
         <v>207.6556096098147</v>
@@ -37075,22 +37075,22 @@
         <v>261.945434080753</v>
       </c>
       <c r="M32" t="n">
-        <v>296.6462756582028</v>
+        <v>296.6462756582027</v>
       </c>
       <c r="N32" t="n">
-        <v>291.0907086322194</v>
+        <v>291.0907086322193</v>
       </c>
       <c r="O32" t="n">
-        <v>249.4480499963905</v>
+        <v>249.4480499963904</v>
       </c>
       <c r="P32" t="n">
-        <v>199.491418774065</v>
+        <v>199.4914187740649</v>
       </c>
       <c r="Q32" t="n">
-        <v>124.4388415088088</v>
+        <v>124.4388415088087</v>
       </c>
       <c r="R32" t="n">
-        <v>18.72310014546454</v>
+        <v>18.72310014546528</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37163,7 +37163,7 @@
         <v>134.5697545638963</v>
       </c>
       <c r="P33" t="n">
-        <v>85.70459520341235</v>
+        <v>85.70459520341237</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37209,22 +37209,22 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>71.16933745596961</v>
+        <v>51.72215224285398</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>44.15012488792651</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>48.15553927199119</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>92.9891461700168</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -37242,13 +37242,13 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>155.0225428420443</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>1.1658102850269</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.659271989747145</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -37303,22 +37303,22 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>159.9229596905267</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>230.4889664450378</v>
       </c>
       <c r="L35" t="n">
-        <v>284.7787909159762</v>
+        <v>284.7787909159761</v>
       </c>
       <c r="M35" t="n">
-        <v>155.9926080034294</v>
+        <v>307.8395782979048</v>
       </c>
       <c r="N35" t="n">
-        <v>313.9240654674425</v>
+        <v>78.24522996402482</v>
       </c>
       <c r="O35" t="n">
-        <v>272.2814068316136</v>
+        <v>272.2814068316135</v>
       </c>
       <c r="P35" t="n">
         <v>222.3247756092881</v>
@@ -37327,13 +37327,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>41.55645698068848</v>
+        <v>41.55645698068842</v>
       </c>
       <c r="S35" t="n">
-        <v>8.437239664472729</v>
+        <v>8.437239664472672</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>13.26585845443222</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -37400,7 +37400,7 @@
         <v>134.5697545638963</v>
       </c>
       <c r="P36" t="n">
-        <v>85.70459520341235</v>
+        <v>85.70459520341237</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37476,10 +37476,10 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>119.4158524978846</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>119.4158524978847</v>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -37543,34 +37543,34 @@
         <v>159.9229596905267</v>
       </c>
       <c r="K38" t="n">
-        <v>230.4889664450379</v>
+        <v>230.4889664450378</v>
       </c>
       <c r="L38" t="n">
-        <v>284.7787909159762</v>
+        <v>214.8882726437458</v>
       </c>
       <c r="M38" t="n">
-        <v>319.4796324934259</v>
+        <v>83.80079699000821</v>
       </c>
       <c r="N38" t="n">
-        <v>217.4136288466497</v>
+        <v>78.24522996402482</v>
       </c>
       <c r="O38" t="n">
-        <v>36.60257132819585</v>
+        <v>272.2814068316135</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>222.3247756092881</v>
       </c>
       <c r="Q38" t="n">
         <v>147.2721983440319</v>
       </c>
       <c r="R38" t="n">
-        <v>41.55645698068848</v>
+        <v>41.55645698068842</v>
       </c>
       <c r="S38" t="n">
-        <v>8.437239664472729</v>
+        <v>8.437239664472672</v>
       </c>
       <c r="T38" t="n">
-        <v>13.26585845443227</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37637,7 +37637,7 @@
         <v>134.5697545638963</v>
       </c>
       <c r="P39" t="n">
-        <v>85.70459520341235</v>
+        <v>85.70459520341237</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37704,13 +37704,13 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>119.4158524978846</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
       </c>
       <c r="N40" t="n">
-        <v>0</v>
+        <v>119.4158524978847</v>
       </c>
       <c r="O40" t="n">
         <v>0</v>
@@ -37777,25 +37777,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>58.22265401135447</v>
       </c>
       <c r="K41" t="n">
-        <v>230.4889664450379</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>284.7787909159762</v>
       </c>
       <c r="M41" t="n">
-        <v>83.80079699000819</v>
+        <v>319.4796324934259</v>
       </c>
       <c r="N41" t="n">
-        <v>313.9240654674425</v>
+        <v>313.9240654674426</v>
       </c>
       <c r="O41" t="n">
         <v>272.2814068316136</v>
       </c>
       <c r="P41" t="n">
-        <v>76.67838152416599</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>147.2721983440319</v>
@@ -37807,7 +37807,7 @@
         <v>8.437239664472729</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>13.26585845443227</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -37874,7 +37874,7 @@
         <v>134.5697545638963</v>
       </c>
       <c r="P42" t="n">
-        <v>85.70459520341235</v>
+        <v>85.70459520341237</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37929,7 +37929,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>69.90263677286934</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>49.51321572501523</v>
+        <v>0</v>
       </c>
       <c r="L43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>119.4158524978846</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38014,34 +38014,34 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>159.9229596905267</v>
+        <v>159.9229596905266</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>230.4889664450378</v>
       </c>
       <c r="L44" t="n">
-        <v>49.09995541255844</v>
+        <v>284.7787909159761</v>
       </c>
       <c r="M44" t="n">
-        <v>294.3929418079766</v>
+        <v>319.4796324934259</v>
       </c>
       <c r="N44" t="n">
-        <v>313.9240654674425</v>
+        <v>78.24522996402482</v>
       </c>
       <c r="O44" t="n">
-        <v>272.2814068316136</v>
+        <v>36.60257132819586</v>
       </c>
       <c r="P44" t="n">
-        <v>222.3247756092881</v>
+        <v>222.324775609288</v>
       </c>
       <c r="Q44" t="n">
-        <v>147.2721983440319</v>
+        <v>77.38168007180219</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>41.5564569806884</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>8.437239664472644</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38111,7 +38111,7 @@
         <v>134.5697545638963</v>
       </c>
       <c r="P45" t="n">
-        <v>85.70459520341235</v>
+        <v>85.70459520341237</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38148,7 +38148,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>58.06191483844964</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -38181,7 +38181,7 @@
         <v>0</v>
       </c>
       <c r="M46" t="n">
-        <v>47.59455756425974</v>
+        <v>119.4158524978849</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -38214,7 +38214,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>13.7593800951752</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
